--- a/Digikey/Zener-Diodes.xlsx
+++ b/Digikey/Zener-Diodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940" tabRatio="609" activeTab="2"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940" tabRatio="609"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="5" r:id="rId1"/>
@@ -3024,8 +3024,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="123">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3155,7 +3159,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="123">
+  <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3217,6 +3221,8 @@
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3278,6 +3284,8 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -3821,8 +3829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4095,6 +4103,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AB54"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
@@ -8066,7 +8075,7 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AB233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <pane xSplit="16940" ySplit="560" topLeftCell="V1" activePane="bottomLeft"/>
       <selection activeCell="Z21" sqref="Z21"/>
       <selection pane="topRight" activeCell="Y212" sqref="Y212"/>

--- a/Digikey/Zener-Diodes.xlsx
+++ b/Digikey/Zener-Diodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940" tabRatio="609" activeTab="2"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940" tabRatio="609" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5362" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5381" uniqueCount="980">
   <si>
     <t>ï»¿"Datasheets"</t>
   </si>
@@ -2958,6 +2958,9 @@
   </si>
   <si>
     <t>Device</t>
+  </si>
+  <si>
+    <t>SOD323</t>
   </si>
 </sst>
 </file>
@@ -3008,7 +3011,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3027,8 +3030,14 @@
         <bgColor rgb="FF4F81BD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FFDCE6F1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3047,8 +3056,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3176,15 +3200,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3248,6 +3275,7 @@
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3311,6 +3339,7 @@
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -3482,7 +3511,13 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:AB233" totalsRowShown="0">
-  <autoFilter ref="A1:AB233"/>
+  <autoFilter ref="A1:AB233">
+    <filterColumn colId="24">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:AB233">
     <sortCondition ref="N1:N233"/>
   </sortState>
@@ -4122,11 +4157,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AB54"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane xSplit="30300" topLeftCell="AC1"/>
-      <selection activeCell="Z78" sqref="Z78"/>
+      <selection activeCell="AB42" sqref="AB42"/>
       <selection pane="topRight" activeCell="AD388" sqref="AD388"/>
     </sheetView>
   </sheetViews>
@@ -4317,6 +4353,9 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>2.4VStock</v>
       </c>
+      <c r="AB2" s="5" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="3" spans="1:28" hidden="1">
       <c r="A3" t="s">
@@ -4608,6 +4647,9 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>3.3VStock</v>
       </c>
+      <c r="AB6" s="5" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" t="s">
@@ -4686,6 +4728,9 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>3.6VStock</v>
       </c>
+      <c r="AB7" s="5" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="8" spans="1:28" hidden="1">
       <c r="A8" t="s">
@@ -4835,6 +4880,9 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>4.3VStock</v>
       </c>
+      <c r="AB9" s="5" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="10" spans="1:28" hidden="1">
       <c r="A10" t="s">
@@ -5126,6 +5174,9 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>5.1VStock</v>
       </c>
+      <c r="AB13" s="5" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="14" spans="1:28" hidden="1">
       <c r="A14" t="s">
@@ -5340,7 +5391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" hidden="1">
+    <row r="17" spans="1:28" hidden="1">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -5411,7 +5462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:26" hidden="1">
+    <row r="18" spans="1:28" hidden="1">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -5482,7 +5533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:26" hidden="1">
+    <row r="19" spans="1:28" hidden="1">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -5553,7 +5604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:26" hidden="1">
+    <row r="20" spans="1:28" hidden="1">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -5624,7 +5675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:26" hidden="1">
+    <row r="21" spans="1:28" hidden="1">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -5695,7 +5746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:26" hidden="1">
+    <row r="22" spans="1:28" hidden="1">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -5766,7 +5817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -5843,8 +5894,11 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>8.2VStock</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" hidden="1">
+      <c r="AB23" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" hidden="1">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -5915,7 +5969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:26" hidden="1">
+    <row r="25" spans="1:28" hidden="1">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -5986,7 +6040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" hidden="1">
+    <row r="26" spans="1:28" hidden="1">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -6057,7 +6111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -6134,8 +6188,11 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>10VStock</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" hidden="1">
+      <c r="AB27" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" hidden="1">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -6206,7 +6263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:26" hidden="1">
+    <row r="29" spans="1:28" hidden="1">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -6277,7 +6334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" hidden="1">
+    <row r="30" spans="1:28" hidden="1">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -6348,7 +6405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:26" hidden="1">
+    <row r="31" spans="1:28" hidden="1">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -6419,7 +6476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:26" hidden="1">
+    <row r="32" spans="1:28" hidden="1">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -6490,7 +6547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:26" hidden="1">
+    <row r="33" spans="1:28" hidden="1">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -6561,7 +6618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -6638,8 +6695,11 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>15VStock</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" hidden="1">
+      <c r="AB34" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" hidden="1">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -6710,7 +6770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:26" hidden="1">
+    <row r="36" spans="1:28" hidden="1">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -6781,7 +6841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:26" hidden="1">
+    <row r="37" spans="1:28" hidden="1">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -6852,7 +6912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:26" hidden="1">
+    <row r="38" spans="1:28" hidden="1">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -6923,7 +6983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -7000,8 +7060,11 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>20VStock</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" hidden="1">
+      <c r="AB39" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" hidden="1">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -7072,7 +7135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:26" hidden="1">
+    <row r="41" spans="1:28" hidden="1">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -7143,7 +7206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -7220,8 +7283,11 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>33VStock</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" hidden="1">
+      <c r="AB42" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" hidden="1">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -7292,7 +7358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:26" hidden="1">
+    <row r="44" spans="1:28" hidden="1">
       <c r="A44" t="s">
         <v>230</v>
       </c>
@@ -7363,7 +7429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:26" hidden="1">
+    <row r="45" spans="1:28" hidden="1">
       <c r="A45" t="s">
         <v>230</v>
       </c>
@@ -7434,7 +7500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:26" hidden="1">
+    <row r="46" spans="1:28" hidden="1">
       <c r="A46" t="s">
         <v>230</v>
       </c>
@@ -7505,7 +7571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:26" hidden="1">
+    <row r="47" spans="1:28" hidden="1">
       <c r="A47" t="s">
         <v>230</v>
       </c>
@@ -7576,7 +7642,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:26" hidden="1">
+    <row r="48" spans="1:28" hidden="1">
       <c r="A48" t="s">
         <v>230</v>
       </c>
@@ -8092,11 +8158,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <pane xSplit="16940" ySplit="560" topLeftCell="V6"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <pane xSplit="16940" ySplit="560" topLeftCell="V7" activePane="bottomLeft"/>
       <selection activeCell="AB1" sqref="AB1"/>
       <selection pane="topRight" activeCell="Y212" sqref="Y212"/>
-      <selection pane="bottomLeft" activeCell="AA7" sqref="AA7"/>
+      <selection pane="bottomLeft" activeCell="AB7" sqref="AB7"/>
       <selection pane="bottomRight" activeCell="Y219" sqref="Y219"/>
     </sheetView>
   </sheetViews>
@@ -8210,7 +8276,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="16" thickTop="1">
+    <row r="2" spans="1:28" ht="16" hidden="1" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>263</v>
       </c>
@@ -8289,7 +8355,7 @@
         <v>100V</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" ht="16" hidden="1" thickTop="1">
       <c r="A3" s="3" t="s">
         <v>263</v>
       </c>
@@ -8368,7 +8434,7 @@
         <v>100V</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" ht="16" hidden="1" thickTop="1">
       <c r="A4" s="3" t="s">
         <v>263</v>
       </c>
@@ -8447,7 +8513,7 @@
         <v>100V</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" ht="16" hidden="1" thickTop="1">
       <c r="A5" s="3" t="s">
         <v>275</v>
       </c>
@@ -8526,7 +8592,7 @@
         <v>10V</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" ht="16" hidden="1" thickTop="1">
       <c r="A6" s="3" t="s">
         <v>263</v>
       </c>
@@ -8605,7 +8671,7 @@
         <v>10V</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" ht="16" thickTop="1">
       <c r="A7" s="3" t="s">
         <v>263</v>
       </c>
@@ -8686,8 +8752,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>10VStock</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AB7" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" hidden="1">
       <c r="A8" s="3" t="s">
         <v>263</v>
       </c>
@@ -8766,7 +8835,7 @@
         <v>10V</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" hidden="1">
       <c r="A9" s="3" t="s">
         <v>815</v>
       </c>
@@ -8845,7 +8914,7 @@
         <v>110V</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" hidden="1">
       <c r="A10" s="3" t="s">
         <v>815</v>
       </c>
@@ -8924,7 +8993,7 @@
         <v>110V</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" hidden="1">
       <c r="A11" s="3" t="s">
         <v>263</v>
       </c>
@@ -9003,7 +9072,7 @@
         <v>11V</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" hidden="1">
       <c r="A12" s="3" t="s">
         <v>263</v>
       </c>
@@ -9082,7 +9151,7 @@
         <v>11V</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" hidden="1">
       <c r="A13" s="3" t="s">
         <v>263</v>
       </c>
@@ -9161,7 +9230,7 @@
         <v>11V</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" hidden="1">
       <c r="A14" s="3" t="s">
         <v>263</v>
       </c>
@@ -9240,7 +9309,7 @@
         <v>120V</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" hidden="1">
       <c r="A15" s="3" t="s">
         <v>263</v>
       </c>
@@ -9319,7 +9388,7 @@
         <v>120V</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" hidden="1">
       <c r="A16" s="3" t="s">
         <v>263</v>
       </c>
@@ -9398,7 +9467,7 @@
         <v>12V</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" hidden="1">
       <c r="A17" s="3" t="s">
         <v>275</v>
       </c>
@@ -9477,7 +9546,7 @@
         <v>12V</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" hidden="1">
       <c r="A18" s="3" t="s">
         <v>263</v>
       </c>
@@ -9556,7 +9625,7 @@
         <v>12V</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" hidden="1">
       <c r="A19" s="3" t="s">
         <v>275</v>
       </c>
@@ -9635,7 +9704,7 @@
         <v>12V</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" hidden="1">
       <c r="A20" s="3" t="s">
         <v>263</v>
       </c>
@@ -9714,7 +9783,7 @@
         <v>12V</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" hidden="1">
       <c r="A21" s="3" t="s">
         <v>275</v>
       </c>
@@ -9793,7 +9862,7 @@
         <v>12V</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" hidden="1">
       <c r="A22" s="3" t="s">
         <v>263</v>
       </c>
@@ -9872,7 +9941,7 @@
         <v>12V</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" hidden="1">
       <c r="A23" s="3" t="s">
         <v>263</v>
       </c>
@@ -9951,7 +10020,7 @@
         <v>130V</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" hidden="1">
       <c r="A24" s="3" t="s">
         <v>275</v>
       </c>
@@ -10030,7 +10099,7 @@
         <v>130V</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" hidden="1">
       <c r="A25" s="3" t="s">
         <v>263</v>
       </c>
@@ -10109,7 +10178,7 @@
         <v>130V</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" hidden="1">
       <c r="A26" s="3" t="s">
         <v>263</v>
       </c>
@@ -10188,7 +10257,7 @@
         <v>130V</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" hidden="1">
       <c r="A27" s="3" t="s">
         <v>263</v>
       </c>
@@ -10267,7 +10336,7 @@
         <v>13V</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" hidden="1">
       <c r="A28" s="3" t="s">
         <v>263</v>
       </c>
@@ -10346,7 +10415,7 @@
         <v>13V</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" hidden="1">
       <c r="A29" s="3" t="s">
         <v>263</v>
       </c>
@@ -10425,7 +10494,7 @@
         <v>13V</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" hidden="1">
       <c r="A30" s="3" t="s">
         <v>263</v>
       </c>
@@ -10504,7 +10573,7 @@
         <v>13V</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" hidden="1">
       <c r="A31" s="3" t="s">
         <v>263</v>
       </c>
@@ -10583,7 +10652,7 @@
         <v>14V</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" hidden="1">
       <c r="A32" s="3" t="s">
         <v>263</v>
       </c>
@@ -10662,7 +10731,7 @@
         <v>14V</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:28" hidden="1">
       <c r="A33" s="3" t="s">
         <v>263</v>
       </c>
@@ -10741,7 +10810,7 @@
         <v>14V</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:28" hidden="1">
       <c r="A34" s="3" t="s">
         <v>263</v>
       </c>
@@ -10820,7 +10889,7 @@
         <v>150V</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:28" hidden="1">
       <c r="A35" s="3" t="s">
         <v>263</v>
       </c>
@@ -10899,7 +10968,7 @@
         <v>150V</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:28" hidden="1">
       <c r="A36" s="3" t="s">
         <v>275</v>
       </c>
@@ -10978,7 +11047,7 @@
         <v>150V</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:28" hidden="1">
       <c r="A37" s="3" t="s">
         <v>275</v>
       </c>
@@ -11057,7 +11126,7 @@
         <v>150V</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:28" hidden="1">
       <c r="A38" s="3" t="s">
         <v>263</v>
       </c>
@@ -11136,7 +11205,7 @@
         <v>150V</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:28" hidden="1">
       <c r="A39" s="3" t="s">
         <v>275</v>
       </c>
@@ -11215,7 +11284,7 @@
         <v>150V</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:28" hidden="1">
       <c r="A40" s="3" t="s">
         <v>263</v>
       </c>
@@ -11294,7 +11363,7 @@
         <v>150V</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:28" hidden="1">
       <c r="A41" s="3" t="s">
         <v>275</v>
       </c>
@@ -11373,7 +11442,7 @@
         <v>15V</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:28" hidden="1">
       <c r="A42" s="3" t="s">
         <v>275</v>
       </c>
@@ -11452,7 +11521,7 @@
         <v>15V</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:28">
       <c r="A43" s="3" t="s">
         <v>263</v>
       </c>
@@ -11533,8 +11602,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>15VStock</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AB43" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" hidden="1">
       <c r="A44" s="3" t="s">
         <v>263</v>
       </c>
@@ -11613,7 +11685,7 @@
         <v>15V</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:28" hidden="1">
       <c r="A45" s="3" t="s">
         <v>263</v>
       </c>
@@ -11692,7 +11764,7 @@
         <v>15V</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:28" hidden="1">
       <c r="A46" s="3" t="s">
         <v>275</v>
       </c>
@@ -11771,7 +11843,7 @@
         <v>15V</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:28" hidden="1">
       <c r="A47" s="3" t="s">
         <v>275</v>
       </c>
@@ -11850,7 +11922,7 @@
         <v>15V</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:28" hidden="1">
       <c r="A48" s="3" t="s">
         <v>263</v>
       </c>
@@ -11929,7 +12001,7 @@
         <v>15V</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" hidden="1">
       <c r="A49" s="3" t="s">
         <v>263</v>
       </c>
@@ -12008,7 +12080,7 @@
         <v>160V</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" hidden="1">
       <c r="A50" s="3" t="s">
         <v>263</v>
       </c>
@@ -12087,7 +12159,7 @@
         <v>160V</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" hidden="1">
       <c r="A51" s="3" t="s">
         <v>263</v>
       </c>
@@ -12166,7 +12238,7 @@
         <v>16V</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" hidden="1">
       <c r="A52" s="3" t="s">
         <v>263</v>
       </c>
@@ -12245,7 +12317,7 @@
         <v>16V</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" hidden="1">
       <c r="A53" s="3" t="s">
         <v>720</v>
       </c>
@@ -12324,7 +12396,7 @@
         <v>16V</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" hidden="1">
       <c r="A54" s="3" t="s">
         <v>263</v>
       </c>
@@ -12403,7 +12475,7 @@
         <v>16V</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" hidden="1">
       <c r="A55" s="3" t="s">
         <v>263</v>
       </c>
@@ -12482,7 +12554,7 @@
         <v>17V</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" hidden="1">
       <c r="A56" s="3" t="s">
         <v>263</v>
       </c>
@@ -12561,7 +12633,7 @@
         <v>17V</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" hidden="1">
       <c r="A57" s="3" t="s">
         <v>263</v>
       </c>
@@ -12640,7 +12712,7 @@
         <v>17V</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" hidden="1">
       <c r="A58" s="3" t="s">
         <v>275</v>
       </c>
@@ -12719,7 +12791,7 @@
         <v>180V</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" hidden="1">
       <c r="A59" s="3" t="s">
         <v>263</v>
       </c>
@@ -12798,7 +12870,7 @@
         <v>180V</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" hidden="1">
       <c r="A60" s="3" t="s">
         <v>263</v>
       </c>
@@ -12877,7 +12949,7 @@
         <v>180V</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" hidden="1">
       <c r="A61" s="3" t="s">
         <v>263</v>
       </c>
@@ -12956,7 +13028,7 @@
         <v>180V</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" hidden="1">
       <c r="A62" s="3" t="s">
         <v>275</v>
       </c>
@@ -13035,7 +13107,7 @@
         <v>180V</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" hidden="1">
       <c r="A63" s="3" t="s">
         <v>275</v>
       </c>
@@ -13114,7 +13186,7 @@
         <v>180V</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" hidden="1">
       <c r="A64" s="3" t="s">
         <v>275</v>
       </c>
@@ -13193,7 +13265,7 @@
         <v>18V</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" hidden="1">
       <c r="A65" s="3" t="s">
         <v>263</v>
       </c>
@@ -13272,7 +13344,7 @@
         <v>18V</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" hidden="1">
       <c r="A66" s="3" t="s">
         <v>263</v>
       </c>
@@ -13351,7 +13423,7 @@
         <v>18V</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" hidden="1">
       <c r="A67" s="3" t="s">
         <v>720</v>
       </c>
@@ -13430,7 +13502,7 @@
         <v>18V</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" hidden="1">
       <c r="A68" s="3" t="s">
         <v>275</v>
       </c>
@@ -13509,7 +13581,7 @@
         <v>18V</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" hidden="1">
       <c r="A69" s="3" t="s">
         <v>275</v>
       </c>
@@ -13588,7 +13660,7 @@
         <v>18V</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" hidden="1">
       <c r="A70" s="3" t="s">
         <v>263</v>
       </c>
@@ -13667,7 +13739,7 @@
         <v>18V</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" hidden="1">
       <c r="A71" s="3" t="s">
         <v>958</v>
       </c>
@@ -13746,7 +13818,7 @@
         <v>18V</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" hidden="1">
       <c r="A72" s="3" t="s">
         <v>263</v>
       </c>
@@ -13825,7 +13897,7 @@
         <v>190V</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" hidden="1">
       <c r="A73" s="3" t="s">
         <v>263</v>
       </c>
@@ -13904,7 +13976,7 @@
         <v>19V</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" hidden="1">
       <c r="A74" s="3" t="s">
         <v>263</v>
       </c>
@@ -13983,7 +14055,7 @@
         <v>19V</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" hidden="1">
       <c r="A75" s="3" t="s">
         <v>275</v>
       </c>
@@ -14062,7 +14134,7 @@
         <v>200V</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" hidden="1">
       <c r="A76" s="3" t="s">
         <v>263</v>
       </c>
@@ -14141,7 +14213,7 @@
         <v>200V</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" hidden="1">
       <c r="A77" s="3" t="s">
         <v>275</v>
       </c>
@@ -14220,7 +14292,7 @@
         <v>200V</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" hidden="1">
       <c r="A78" s="3" t="s">
         <v>263</v>
       </c>
@@ -14299,7 +14371,7 @@
         <v>200V</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" hidden="1">
       <c r="A79" s="3" t="s">
         <v>263</v>
       </c>
@@ -14378,7 +14450,7 @@
         <v>200V</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" hidden="1">
       <c r="A80" s="3" t="s">
         <v>275</v>
       </c>
@@ -14457,7 +14529,7 @@
         <v>200V</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:28" hidden="1">
       <c r="A81" s="3" t="s">
         <v>263</v>
       </c>
@@ -14536,7 +14608,7 @@
         <v>200V</v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:28" hidden="1">
       <c r="A82" s="3" t="s">
         <v>263</v>
       </c>
@@ -14615,7 +14687,7 @@
         <v>20V</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:28">
       <c r="A83" s="3" t="s">
         <v>263</v>
       </c>
@@ -14696,8 +14768,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>20VStock</v>
       </c>
-    </row>
-    <row r="84" spans="1:26">
+      <c r="AB83" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" hidden="1">
       <c r="A84" s="3" t="s">
         <v>275</v>
       </c>
@@ -14776,7 +14851,7 @@
         <v>20V</v>
       </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:28" hidden="1">
       <c r="A85" s="3" t="s">
         <v>263</v>
       </c>
@@ -14855,7 +14930,7 @@
         <v>20V</v>
       </c>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:28" hidden="1">
       <c r="A86" s="3" t="s">
         <v>263</v>
       </c>
@@ -14934,7 +15009,7 @@
         <v>20V</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:28" hidden="1">
       <c r="A87" s="3" t="s">
         <v>263</v>
       </c>
@@ -15013,7 +15088,7 @@
         <v>22V</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:28" hidden="1">
       <c r="A88" s="3" t="s">
         <v>263</v>
       </c>
@@ -15092,7 +15167,7 @@
         <v>22V</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:28" hidden="1">
       <c r="A89" s="3" t="s">
         <v>263</v>
       </c>
@@ -15171,7 +15246,7 @@
         <v>22V</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:28" hidden="1">
       <c r="A90" s="3" t="s">
         <v>275</v>
       </c>
@@ -15250,7 +15325,7 @@
         <v>24V</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:28" hidden="1">
       <c r="A91" s="3" t="s">
         <v>263</v>
       </c>
@@ -15329,7 +15404,7 @@
         <v>24V</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:28" hidden="1">
       <c r="A92" s="3" t="s">
         <v>275</v>
       </c>
@@ -15408,7 +15483,7 @@
         <v>24V</v>
       </c>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:28" hidden="1">
       <c r="A93" s="3" t="s">
         <v>263</v>
       </c>
@@ -15487,7 +15562,7 @@
         <v>24V</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:28" hidden="1">
       <c r="A94" s="3" t="s">
         <v>263</v>
       </c>
@@ -15566,7 +15641,7 @@
         <v>24V</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:28" hidden="1">
       <c r="A95" s="3" t="s">
         <v>275</v>
       </c>
@@ -15645,7 +15720,7 @@
         <v>24V</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:28" hidden="1">
       <c r="A96" s="3" t="s">
         <v>263</v>
       </c>
@@ -15724,7 +15799,7 @@
         <v>24V</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" hidden="1">
       <c r="A97" s="3" t="s">
         <v>958</v>
       </c>
@@ -15803,7 +15878,7 @@
         <v>24V</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" hidden="1">
       <c r="A98" s="3" t="s">
         <v>958</v>
       </c>
@@ -15882,7 +15957,7 @@
         <v>24V</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" hidden="1">
       <c r="A99" s="3" t="s">
         <v>263</v>
       </c>
@@ -15961,7 +16036,7 @@
         <v>25V</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" hidden="1">
       <c r="A100" s="3" t="s">
         <v>263</v>
       </c>
@@ -16040,7 +16115,7 @@
         <v>25V</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" hidden="1">
       <c r="A101" s="3" t="s">
         <v>263</v>
       </c>
@@ -16119,7 +16194,7 @@
         <v>25V</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" hidden="1">
       <c r="A102" s="3" t="s">
         <v>263</v>
       </c>
@@ -16198,7 +16273,7 @@
         <v>27V</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" hidden="1">
       <c r="A103" s="3" t="s">
         <v>263</v>
       </c>
@@ -16277,7 +16352,7 @@
         <v>27V</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" hidden="1">
       <c r="A104" s="3" t="s">
         <v>275</v>
       </c>
@@ -16356,7 +16431,7 @@
         <v>27V</v>
       </c>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" hidden="1">
       <c r="A105" s="3" t="s">
         <v>263</v>
       </c>
@@ -16435,7 +16510,7 @@
         <v>27V</v>
       </c>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" hidden="1">
       <c r="A106" s="3" t="s">
         <v>275</v>
       </c>
@@ -16514,7 +16589,7 @@
         <v>27V</v>
       </c>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" hidden="1">
       <c r="A107" s="3" t="s">
         <v>275</v>
       </c>
@@ -16593,7 +16668,7 @@
         <v>27V</v>
       </c>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" hidden="1">
       <c r="A108" s="3" t="s">
         <v>263</v>
       </c>
@@ -16672,7 +16747,7 @@
         <v>27V</v>
       </c>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" hidden="1">
       <c r="A109" s="3" t="s">
         <v>263</v>
       </c>
@@ -16751,7 +16826,7 @@
         <v>28V</v>
       </c>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" hidden="1">
       <c r="A110" s="3" t="s">
         <v>263</v>
       </c>
@@ -16830,7 +16905,7 @@
         <v>28V</v>
       </c>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" hidden="1">
       <c r="A111" s="3" t="s">
         <v>263</v>
       </c>
@@ -16909,7 +16984,7 @@
         <v>28V</v>
       </c>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" hidden="1">
       <c r="A112" s="3" t="s">
         <v>263</v>
       </c>
@@ -16988,7 +17063,7 @@
         <v>28V</v>
       </c>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:28">
       <c r="A113" s="3" t="s">
         <v>263</v>
       </c>
@@ -17069,8 +17144,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>3.3VStock</v>
       </c>
-    </row>
-    <row r="114" spans="1:26">
+      <c r="AB113" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" hidden="1">
       <c r="A114" s="3" t="s">
         <v>263</v>
       </c>
@@ -17149,7 +17227,7 @@
         <v>3.3V</v>
       </c>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:28" hidden="1">
       <c r="A115" s="3" t="s">
         <v>275</v>
       </c>
@@ -17228,7 +17306,7 @@
         <v>3.3V</v>
       </c>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:28" hidden="1">
       <c r="A116" s="3" t="s">
         <v>263</v>
       </c>
@@ -17307,7 +17385,7 @@
         <v>3.3V</v>
       </c>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:28" hidden="1">
       <c r="A117" s="3" t="s">
         <v>275</v>
       </c>
@@ -17386,7 +17464,7 @@
         <v>3.3V</v>
       </c>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:28" hidden="1">
       <c r="A118" s="3" t="s">
         <v>275</v>
       </c>
@@ -17465,7 +17543,7 @@
         <v>3.3V</v>
       </c>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:28" hidden="1">
       <c r="A119" s="3" t="s">
         <v>263</v>
       </c>
@@ -17544,7 +17622,7 @@
         <v>3.3V</v>
       </c>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:28">
       <c r="A120" s="3" t="s">
         <v>263</v>
       </c>
@@ -17625,8 +17703,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>3.6VStock</v>
       </c>
-    </row>
-    <row r="121" spans="1:26">
+      <c r="AB120" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" hidden="1">
       <c r="A121" s="3" t="s">
         <v>263</v>
       </c>
@@ -17705,7 +17786,7 @@
         <v>3.6V</v>
       </c>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:28" hidden="1">
       <c r="A122" s="3" t="s">
         <v>882</v>
       </c>
@@ -17784,7 +17865,7 @@
         <v>3.6V</v>
       </c>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:28" hidden="1">
       <c r="A123" s="3" t="s">
         <v>263</v>
       </c>
@@ -17863,7 +17944,7 @@
         <v>3.6V</v>
       </c>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:28" hidden="1">
       <c r="A124" s="3" t="s">
         <v>958</v>
       </c>
@@ -17942,7 +18023,7 @@
         <v>3.6V</v>
       </c>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:28" hidden="1">
       <c r="A125" s="3" t="s">
         <v>263</v>
       </c>
@@ -18021,7 +18102,7 @@
         <v>3.9V</v>
       </c>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:28" hidden="1">
       <c r="A126" s="3" t="s">
         <v>263</v>
       </c>
@@ -18100,7 +18181,7 @@
         <v>3.9V</v>
       </c>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:28" hidden="1">
       <c r="A127" s="3" t="s">
         <v>263</v>
       </c>
@@ -18179,7 +18260,7 @@
         <v>3.9V</v>
       </c>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:28" hidden="1">
       <c r="A128" s="3" t="s">
         <v>263</v>
       </c>
@@ -18258,7 +18339,7 @@
         <v>3.9V</v>
       </c>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:28" hidden="1">
       <c r="A129" s="3" t="s">
         <v>263</v>
       </c>
@@ -18337,7 +18418,7 @@
         <v>30V</v>
       </c>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:28" hidden="1">
       <c r="A130" s="3" t="s">
         <v>263</v>
       </c>
@@ -18416,7 +18497,7 @@
         <v>30V</v>
       </c>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:28" hidden="1">
       <c r="A131" s="3" t="s">
         <v>263</v>
       </c>
@@ -18495,7 +18576,7 @@
         <v>30V</v>
       </c>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:28" hidden="1">
       <c r="A132" s="3" t="s">
         <v>275</v>
       </c>
@@ -18574,7 +18655,7 @@
         <v>30V</v>
       </c>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:28" hidden="1">
       <c r="A133" s="3" t="s">
         <v>275</v>
       </c>
@@ -18653,7 +18734,7 @@
         <v>30V</v>
       </c>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:28" hidden="1">
       <c r="A134" s="3" t="s">
         <v>263</v>
       </c>
@@ -18732,7 +18813,7 @@
         <v>30V</v>
       </c>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:28" hidden="1">
       <c r="A135" s="3" t="s">
         <v>263</v>
       </c>
@@ -18811,7 +18892,7 @@
         <v>33V</v>
       </c>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:28" hidden="1">
       <c r="A136" s="3" t="s">
         <v>275</v>
       </c>
@@ -18890,7 +18971,7 @@
         <v>33V</v>
       </c>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:28">
       <c r="A137" s="3" t="s">
         <v>263</v>
       </c>
@@ -18971,8 +19052,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>33VStock</v>
       </c>
-    </row>
-    <row r="138" spans="1:26">
+      <c r="AB137" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" hidden="1">
       <c r="A138" s="3" t="s">
         <v>263</v>
       </c>
@@ -19051,7 +19135,7 @@
         <v>33V</v>
       </c>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:28" hidden="1">
       <c r="A139" s="3" t="s">
         <v>275</v>
       </c>
@@ -19130,7 +19214,7 @@
         <v>33V</v>
       </c>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:28" hidden="1">
       <c r="A140" s="3" t="s">
         <v>275</v>
       </c>
@@ -19209,7 +19293,7 @@
         <v>33V</v>
       </c>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:28" hidden="1">
       <c r="A141" s="3" t="s">
         <v>263</v>
       </c>
@@ -19288,7 +19372,7 @@
         <v>33V</v>
       </c>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:28" hidden="1">
       <c r="A142" s="3" t="s">
         <v>263</v>
       </c>
@@ -19367,7 +19451,7 @@
         <v>36V</v>
       </c>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:28" hidden="1">
       <c r="A143" s="3" t="s">
         <v>275</v>
       </c>
@@ -19446,7 +19530,7 @@
         <v>36V</v>
       </c>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:28" hidden="1">
       <c r="A144" s="3" t="s">
         <v>263</v>
       </c>
@@ -19525,7 +19609,7 @@
         <v>36V</v>
       </c>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:28" hidden="1">
       <c r="A145" s="3" t="s">
         <v>263</v>
       </c>
@@ -19604,7 +19688,7 @@
         <v>36V</v>
       </c>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:28" hidden="1">
       <c r="A146" s="3" t="s">
         <v>275</v>
       </c>
@@ -19683,7 +19767,7 @@
         <v>36V</v>
       </c>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:28" hidden="1">
       <c r="A147" s="3" t="s">
         <v>275</v>
       </c>
@@ -19762,7 +19846,7 @@
         <v>36V</v>
       </c>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:28" hidden="1">
       <c r="A148" s="3" t="s">
         <v>263</v>
       </c>
@@ -19841,7 +19925,7 @@
         <v>36V</v>
       </c>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:28" hidden="1">
       <c r="A149" s="3" t="s">
         <v>263</v>
       </c>
@@ -19920,7 +20004,7 @@
         <v>39V</v>
       </c>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:28" hidden="1">
       <c r="A150" s="3" t="s">
         <v>263</v>
       </c>
@@ -19999,7 +20083,7 @@
         <v>39V</v>
       </c>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:28" hidden="1">
       <c r="A151" s="3" t="s">
         <v>263</v>
       </c>
@@ -20078,7 +20162,7 @@
         <v>39V</v>
       </c>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:28">
       <c r="A152" s="3" t="s">
         <v>263</v>
       </c>
@@ -20159,8 +20243,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>4.3VStock</v>
       </c>
-    </row>
-    <row r="153" spans="1:26">
+      <c r="AB152" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" hidden="1">
       <c r="A153" s="3" t="s">
         <v>263</v>
       </c>
@@ -20239,7 +20326,7 @@
         <v>4.3V</v>
       </c>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:28" hidden="1">
       <c r="A154" s="3" t="s">
         <v>263</v>
       </c>
@@ -20318,7 +20405,7 @@
         <v>4.7V</v>
       </c>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:28" hidden="1">
       <c r="A155" s="3" t="s">
         <v>275</v>
       </c>
@@ -20397,7 +20484,7 @@
         <v>4.7V</v>
       </c>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:28" hidden="1">
       <c r="A156" s="3" t="s">
         <v>263</v>
       </c>
@@ -20476,7 +20563,7 @@
         <v>4.7V</v>
       </c>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:28" hidden="1">
       <c r="A157" s="3" t="s">
         <v>263</v>
       </c>
@@ -20555,7 +20642,7 @@
         <v>4.7V</v>
       </c>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:28" hidden="1">
       <c r="A158" s="3" t="s">
         <v>263</v>
       </c>
@@ -20634,7 +20721,7 @@
         <v>43V</v>
       </c>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:28" hidden="1">
       <c r="A159" s="3" t="s">
         <v>263</v>
       </c>
@@ -20713,7 +20800,7 @@
         <v>43V</v>
       </c>
     </row>
-    <row r="160" spans="1:26">
+    <row r="160" spans="1:28" hidden="1">
       <c r="A160" s="3" t="s">
         <v>275</v>
       </c>
@@ -20792,7 +20879,7 @@
         <v>43V</v>
       </c>
     </row>
-    <row r="161" spans="1:26">
+    <row r="161" spans="1:28" hidden="1">
       <c r="A161" s="3" t="s">
         <v>263</v>
       </c>
@@ -20871,7 +20958,7 @@
         <v>43V</v>
       </c>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:28" hidden="1">
       <c r="A162" s="3" t="s">
         <v>263</v>
       </c>
@@ -20950,7 +21037,7 @@
         <v>47V</v>
       </c>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:28" hidden="1">
       <c r="A163" s="3" t="s">
         <v>263</v>
       </c>
@@ -21029,7 +21116,7 @@
         <v>47V</v>
       </c>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:28" hidden="1">
       <c r="A164" s="3" t="s">
         <v>275</v>
       </c>
@@ -21108,7 +21195,7 @@
         <v>47V</v>
       </c>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:28" hidden="1">
       <c r="A165" s="3" t="s">
         <v>275</v>
       </c>
@@ -21187,7 +21274,7 @@
         <v>47V</v>
       </c>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:28" hidden="1">
       <c r="A166" s="3" t="s">
         <v>275</v>
       </c>
@@ -21266,7 +21353,7 @@
         <v>47V</v>
       </c>
     </row>
-    <row r="167" spans="1:26">
+    <row r="167" spans="1:28" hidden="1">
       <c r="A167" s="3" t="s">
         <v>263</v>
       </c>
@@ -21345,7 +21432,7 @@
         <v>47V</v>
       </c>
     </row>
-    <row r="168" spans="1:26">
+    <row r="168" spans="1:28" hidden="1">
       <c r="A168" s="3" t="s">
         <v>263</v>
       </c>
@@ -21424,7 +21511,7 @@
         <v>5.1V</v>
       </c>
     </row>
-    <row r="169" spans="1:26">
+    <row r="169" spans="1:28">
       <c r="A169" s="3" t="s">
         <v>263</v>
       </c>
@@ -21505,8 +21592,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>5.1VStock</v>
       </c>
-    </row>
-    <row r="170" spans="1:26">
+      <c r="AB169" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28" hidden="1">
       <c r="A170" s="3" t="s">
         <v>263</v>
       </c>
@@ -21585,7 +21675,7 @@
         <v>5.1V</v>
       </c>
     </row>
-    <row r="171" spans="1:26">
+    <row r="171" spans="1:28" hidden="1">
       <c r="A171" s="3" t="s">
         <v>263</v>
       </c>
@@ -21664,7 +21754,7 @@
         <v>5.1V</v>
       </c>
     </row>
-    <row r="172" spans="1:26">
+    <row r="172" spans="1:28" hidden="1">
       <c r="A172" s="3" t="s">
         <v>263</v>
       </c>
@@ -21743,7 +21833,7 @@
         <v>5.6V</v>
       </c>
     </row>
-    <row r="173" spans="1:26">
+    <row r="173" spans="1:28" hidden="1">
       <c r="A173" s="3" t="s">
         <v>275</v>
       </c>
@@ -21822,7 +21912,7 @@
         <v>5.6V</v>
       </c>
     </row>
-    <row r="174" spans="1:26">
+    <row r="174" spans="1:28" hidden="1">
       <c r="A174" s="3" t="s">
         <v>263</v>
       </c>
@@ -21901,7 +21991,7 @@
         <v>5.6V</v>
       </c>
     </row>
-    <row r="175" spans="1:26">
+    <row r="175" spans="1:28" hidden="1">
       <c r="A175" s="3" t="s">
         <v>275</v>
       </c>
@@ -21980,7 +22070,7 @@
         <v>5.6V</v>
       </c>
     </row>
-    <row r="176" spans="1:26">
+    <row r="176" spans="1:28" hidden="1">
       <c r="A176" s="3" t="s">
         <v>275</v>
       </c>
@@ -22059,7 +22149,7 @@
         <v>5.6V</v>
       </c>
     </row>
-    <row r="177" spans="1:26">
+    <row r="177" spans="1:26" hidden="1">
       <c r="A177" s="3" t="s">
         <v>263</v>
       </c>
@@ -22138,7 +22228,7 @@
         <v>5.6V</v>
       </c>
     </row>
-    <row r="178" spans="1:26">
+    <row r="178" spans="1:26" hidden="1">
       <c r="A178" s="3" t="s">
         <v>263</v>
       </c>
@@ -22217,7 +22307,7 @@
         <v>51V</v>
       </c>
     </row>
-    <row r="179" spans="1:26">
+    <row r="179" spans="1:26" hidden="1">
       <c r="A179" s="3" t="s">
         <v>263</v>
       </c>
@@ -22296,7 +22386,7 @@
         <v>51V</v>
       </c>
     </row>
-    <row r="180" spans="1:26">
+    <row r="180" spans="1:26" hidden="1">
       <c r="A180" s="3" t="s">
         <v>275</v>
       </c>
@@ -22375,7 +22465,7 @@
         <v>51V</v>
       </c>
     </row>
-    <row r="181" spans="1:26">
+    <row r="181" spans="1:26" hidden="1">
       <c r="A181" s="3" t="s">
         <v>263</v>
       </c>
@@ -22454,7 +22544,7 @@
         <v>51V</v>
       </c>
     </row>
-    <row r="182" spans="1:26">
+    <row r="182" spans="1:26" hidden="1">
       <c r="A182" s="3" t="s">
         <v>263</v>
       </c>
@@ -22533,7 +22623,7 @@
         <v>51V</v>
       </c>
     </row>
-    <row r="183" spans="1:26">
+    <row r="183" spans="1:26" hidden="1">
       <c r="A183" s="3" t="s">
         <v>263</v>
       </c>
@@ -22612,7 +22702,7 @@
         <v>56V</v>
       </c>
     </row>
-    <row r="184" spans="1:26">
+    <row r="184" spans="1:26" hidden="1">
       <c r="A184" s="3" t="s">
         <v>263</v>
       </c>
@@ -22691,7 +22781,7 @@
         <v>56V</v>
       </c>
     </row>
-    <row r="185" spans="1:26">
+    <row r="185" spans="1:26" hidden="1">
       <c r="A185" s="3" t="s">
         <v>263</v>
       </c>
@@ -22770,7 +22860,7 @@
         <v>6.2V</v>
       </c>
     </row>
-    <row r="186" spans="1:26">
+    <row r="186" spans="1:26" hidden="1">
       <c r="A186" s="3" t="s">
         <v>275</v>
       </c>
@@ -22849,7 +22939,7 @@
         <v>6.2V</v>
       </c>
     </row>
-    <row r="187" spans="1:26">
+    <row r="187" spans="1:26" hidden="1">
       <c r="A187" s="3" t="s">
         <v>263</v>
       </c>
@@ -22928,7 +23018,7 @@
         <v>6.2V</v>
       </c>
     </row>
-    <row r="188" spans="1:26">
+    <row r="188" spans="1:26" hidden="1">
       <c r="A188" s="3" t="s">
         <v>275</v>
       </c>
@@ -23007,7 +23097,7 @@
         <v>6.2V</v>
       </c>
     </row>
-    <row r="189" spans="1:26">
+    <row r="189" spans="1:26" hidden="1">
       <c r="A189" s="3" t="s">
         <v>720</v>
       </c>
@@ -23086,7 +23176,7 @@
         <v>6.2V</v>
       </c>
     </row>
-    <row r="190" spans="1:26">
+    <row r="190" spans="1:26" hidden="1">
       <c r="A190" s="3" t="s">
         <v>275</v>
       </c>
@@ -23165,7 +23255,7 @@
         <v>6.2V</v>
       </c>
     </row>
-    <row r="191" spans="1:26">
+    <row r="191" spans="1:26" hidden="1">
       <c r="A191" s="3" t="s">
         <v>263</v>
       </c>
@@ -23244,7 +23334,7 @@
         <v>6.2V</v>
       </c>
     </row>
-    <row r="192" spans="1:26">
+    <row r="192" spans="1:26" hidden="1">
       <c r="A192" s="3" t="s">
         <v>958</v>
       </c>
@@ -23323,7 +23413,7 @@
         <v>6.2V</v>
       </c>
     </row>
-    <row r="193" spans="1:26">
+    <row r="193" spans="1:26" hidden="1">
       <c r="A193" s="3" t="s">
         <v>275</v>
       </c>
@@ -23402,7 +23492,7 @@
         <v>6.8V</v>
       </c>
     </row>
-    <row r="194" spans="1:26">
+    <row r="194" spans="1:26" hidden="1">
       <c r="A194" s="3" t="s">
         <v>275</v>
       </c>
@@ -23481,7 +23571,7 @@
         <v>6.8V</v>
       </c>
     </row>
-    <row r="195" spans="1:26">
+    <row r="195" spans="1:26" hidden="1">
       <c r="A195" s="3" t="s">
         <v>263</v>
       </c>
@@ -23560,7 +23650,7 @@
         <v>6.8V</v>
       </c>
     </row>
-    <row r="196" spans="1:26">
+    <row r="196" spans="1:26" hidden="1">
       <c r="A196" s="3" t="s">
         <v>263</v>
       </c>
@@ -23639,7 +23729,7 @@
         <v>6.8V</v>
       </c>
     </row>
-    <row r="197" spans="1:26">
+    <row r="197" spans="1:26" hidden="1">
       <c r="A197" s="3" t="s">
         <v>263</v>
       </c>
@@ -23718,7 +23808,7 @@
         <v>6.8V</v>
       </c>
     </row>
-    <row r="198" spans="1:26">
+    <row r="198" spans="1:26" hidden="1">
       <c r="A198" s="3" t="s">
         <v>275</v>
       </c>
@@ -23797,7 +23887,7 @@
         <v>6.8V</v>
       </c>
     </row>
-    <row r="199" spans="1:26">
+    <row r="199" spans="1:26" hidden="1">
       <c r="A199" s="3" t="s">
         <v>263</v>
       </c>
@@ -23876,7 +23966,7 @@
         <v>6.8V</v>
       </c>
     </row>
-    <row r="200" spans="1:26">
+    <row r="200" spans="1:26" hidden="1">
       <c r="A200" s="3" t="s">
         <v>263</v>
       </c>
@@ -23955,7 +24045,7 @@
         <v>60V</v>
       </c>
     </row>
-    <row r="201" spans="1:26">
+    <row r="201" spans="1:26" hidden="1">
       <c r="A201" s="3" t="s">
         <v>263</v>
       </c>
@@ -24034,7 +24124,7 @@
         <v>60V</v>
       </c>
     </row>
-    <row r="202" spans="1:26">
+    <row r="202" spans="1:26" hidden="1">
       <c r="A202" s="3" t="s">
         <v>263</v>
       </c>
@@ -24113,7 +24203,7 @@
         <v>60V</v>
       </c>
     </row>
-    <row r="203" spans="1:26">
+    <row r="203" spans="1:26" hidden="1">
       <c r="A203" s="3" t="s">
         <v>263</v>
       </c>
@@ -24192,7 +24282,7 @@
         <v>62V</v>
       </c>
     </row>
-    <row r="204" spans="1:26">
+    <row r="204" spans="1:26" hidden="1">
       <c r="A204" s="3" t="s">
         <v>263</v>
       </c>
@@ -24271,7 +24361,7 @@
         <v>62V</v>
       </c>
     </row>
-    <row r="205" spans="1:26">
+    <row r="205" spans="1:26" hidden="1">
       <c r="A205" s="3" t="s">
         <v>263</v>
       </c>
@@ -24350,7 +24440,7 @@
         <v>68V</v>
       </c>
     </row>
-    <row r="206" spans="1:26">
+    <row r="206" spans="1:26" hidden="1">
       <c r="A206" s="3" t="s">
         <v>263</v>
       </c>
@@ -24429,7 +24519,7 @@
         <v>68V</v>
       </c>
     </row>
-    <row r="207" spans="1:26">
+    <row r="207" spans="1:26" hidden="1">
       <c r="A207" s="3" t="s">
         <v>263</v>
       </c>
@@ -24508,7 +24598,7 @@
         <v>68V</v>
       </c>
     </row>
-    <row r="208" spans="1:26">
+    <row r="208" spans="1:26" hidden="1">
       <c r="A208" s="3" t="s">
         <v>263</v>
       </c>
@@ -24587,7 +24677,7 @@
         <v>6V</v>
       </c>
     </row>
-    <row r="209" spans="1:26">
+    <row r="209" spans="1:28" hidden="1">
       <c r="A209" s="3" t="s">
         <v>263</v>
       </c>
@@ -24666,7 +24756,7 @@
         <v>6V</v>
       </c>
     </row>
-    <row r="210" spans="1:26">
+    <row r="210" spans="1:28" hidden="1">
       <c r="A210" s="3" t="s">
         <v>263</v>
       </c>
@@ -24745,7 +24835,7 @@
         <v>6V</v>
       </c>
     </row>
-    <row r="211" spans="1:26">
+    <row r="211" spans="1:28" hidden="1">
       <c r="A211" s="3" t="s">
         <v>263</v>
       </c>
@@ -24824,7 +24914,7 @@
         <v>7.5V</v>
       </c>
     </row>
-    <row r="212" spans="1:26">
+    <row r="212" spans="1:28" hidden="1">
       <c r="A212" s="3" t="s">
         <v>263</v>
       </c>
@@ -24903,7 +24993,7 @@
         <v>7.5V</v>
       </c>
     </row>
-    <row r="213" spans="1:26">
+    <row r="213" spans="1:28" hidden="1">
       <c r="A213" s="3" t="s">
         <v>263</v>
       </c>
@@ -24982,7 +25072,7 @@
         <v>7.5V</v>
       </c>
     </row>
-    <row r="214" spans="1:26">
+    <row r="214" spans="1:28" hidden="1">
       <c r="A214" s="3" t="s">
         <v>263</v>
       </c>
@@ -25061,7 +25151,7 @@
         <v>75V</v>
       </c>
     </row>
-    <row r="215" spans="1:26">
+    <row r="215" spans="1:28" hidden="1">
       <c r="A215" s="3" t="s">
         <v>263</v>
       </c>
@@ -25140,7 +25230,7 @@
         <v>75V</v>
       </c>
     </row>
-    <row r="216" spans="1:26">
+    <row r="216" spans="1:28" hidden="1">
       <c r="A216" s="3" t="s">
         <v>275</v>
       </c>
@@ -25219,7 +25309,7 @@
         <v>75V</v>
       </c>
     </row>
-    <row r="217" spans="1:26">
+    <row r="217" spans="1:28" hidden="1">
       <c r="A217" s="3" t="s">
         <v>275</v>
       </c>
@@ -25298,7 +25388,7 @@
         <v>75V</v>
       </c>
     </row>
-    <row r="218" spans="1:26">
+    <row r="218" spans="1:28">
       <c r="A218" s="3" t="s">
         <v>263</v>
       </c>
@@ -25379,8 +25469,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>8.2VStock</v>
       </c>
-    </row>
-    <row r="219" spans="1:26">
+      <c r="AB218" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="219" spans="1:28" hidden="1">
       <c r="A219" s="3" t="s">
         <v>275</v>
       </c>
@@ -25459,7 +25552,7 @@
         <v>8.2V</v>
       </c>
     </row>
-    <row r="220" spans="1:26">
+    <row r="220" spans="1:28" hidden="1">
       <c r="A220" s="3" t="s">
         <v>263</v>
       </c>
@@ -25538,7 +25631,7 @@
         <v>8.2V</v>
       </c>
     </row>
-    <row r="221" spans="1:26">
+    <row r="221" spans="1:28" hidden="1">
       <c r="A221" s="3" t="s">
         <v>263</v>
       </c>
@@ -25617,7 +25710,7 @@
         <v>8.2V</v>
       </c>
     </row>
-    <row r="222" spans="1:26">
+    <row r="222" spans="1:28" hidden="1">
       <c r="A222" s="3" t="s">
         <v>263</v>
       </c>
@@ -25696,7 +25789,7 @@
         <v>8.2V</v>
       </c>
     </row>
-    <row r="223" spans="1:26">
+    <row r="223" spans="1:28" hidden="1">
       <c r="A223" s="3" t="s">
         <v>263</v>
       </c>
@@ -25775,7 +25868,7 @@
         <v>8.7V</v>
       </c>
     </row>
-    <row r="224" spans="1:26">
+    <row r="224" spans="1:28" hidden="1">
       <c r="A224" s="3" t="s">
         <v>263</v>
       </c>
@@ -25854,7 +25947,7 @@
         <v>8.7V</v>
       </c>
     </row>
-    <row r="225" spans="1:26">
+    <row r="225" spans="1:26" hidden="1">
       <c r="A225" s="3" t="s">
         <v>263</v>
       </c>
@@ -25933,7 +26026,7 @@
         <v>82V</v>
       </c>
     </row>
-    <row r="226" spans="1:26">
+    <row r="226" spans="1:26" hidden="1">
       <c r="A226" s="3" t="s">
         <v>275</v>
       </c>
@@ -26012,7 +26105,7 @@
         <v>9.1V</v>
       </c>
     </row>
-    <row r="227" spans="1:26">
+    <row r="227" spans="1:26" hidden="1">
       <c r="A227" s="3" t="s">
         <v>263</v>
       </c>
@@ -26091,7 +26184,7 @@
         <v>9.1V</v>
       </c>
     </row>
-    <row r="228" spans="1:26">
+    <row r="228" spans="1:26" hidden="1">
       <c r="A228" s="3" t="s">
         <v>263</v>
       </c>
@@ -26170,7 +26263,7 @@
         <v>9.1V</v>
       </c>
     </row>
-    <row r="229" spans="1:26">
+    <row r="229" spans="1:26" hidden="1">
       <c r="A229" s="3" t="s">
         <v>275</v>
       </c>
@@ -26249,7 +26342,7 @@
         <v>9.1V</v>
       </c>
     </row>
-    <row r="230" spans="1:26">
+    <row r="230" spans="1:26" hidden="1">
       <c r="A230" s="3" t="s">
         <v>275</v>
       </c>
@@ -26328,7 +26421,7 @@
         <v>9.1V</v>
       </c>
     </row>
-    <row r="231" spans="1:26">
+    <row r="231" spans="1:26" hidden="1">
       <c r="A231" s="3" t="s">
         <v>263</v>
       </c>
@@ -26407,7 +26500,7 @@
         <v>9.1V</v>
       </c>
     </row>
-    <row r="232" spans="1:26">
+    <row r="232" spans="1:26" hidden="1">
       <c r="A232" s="3" t="s">
         <v>263</v>
       </c>
@@ -26486,7 +26579,7 @@
         <v>91V</v>
       </c>
     </row>
-    <row r="233" spans="1:26">
+    <row r="233" spans="1:26" hidden="1">
       <c r="A233" s="3" t="s">
         <v>275</v>
       </c>

--- a/Digikey/Zener-Diodes.xlsx
+++ b/Digikey/Zener-Diodes.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Stephen Deiss\Gadgetron\Gadgets\Libraries\Parts\Digikey\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24480" windowHeight="14940" tabRatio="609" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25540" windowHeight="31460" tabRatio="609" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="5" r:id="rId1"/>
     <sheet name="SOD-323" sheetId="1" r:id="rId2"/>
     <sheet name="TH" sheetId="18" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5400" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5400" uniqueCount="989">
   <si>
     <t>ï»¿"Datasheets"</t>
   </si>
@@ -2959,9 +2954,6 @@
     <t>DIOAD1660W102L890D370_HS</t>
   </si>
   <si>
-    <t>T-18</t>
-  </si>
-  <si>
     <t>DIODE ZENER 2.4V 200MW SOD-323</t>
   </si>
   <si>
@@ -2990,6 +2982,12 @@
   </si>
   <si>
     <t>DIODE ZENER 33V 200MW SOD-323</t>
+  </si>
+  <si>
+    <t>TH-T18</t>
+  </si>
+  <si>
+    <t>SMD-SOD323</t>
   </si>
 </sst>
 </file>
@@ -3040,7 +3038,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3059,14 +3057,8 @@
         <bgColor rgb="FF4F81BD"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
-        <bgColor rgb="FFDCE6F1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3085,24 +3077,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3238,12 +3221,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3308,6 +3291,9 @@
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3372,6 +3358,9 @@
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -3927,20 +3916,20 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -3948,7 +3937,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -3956,10 +3945,10 @@
         <v>972</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>254</v>
       </c>
@@ -3976,7 +3965,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -3996,7 +3985,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -4016,7 +4005,7 @@
         <v>3.3VStock</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -4036,7 +4025,7 @@
         <v>3.6VStock</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -4056,7 +4045,7 @@
         <v>4.3VStock</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -4076,7 +4065,7 @@
         <v>5.1VStock</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -4096,7 +4085,7 @@
         <v>8.2VStock</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -4116,7 +4105,7 @@
         <v>10VStock</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>183</v>
       </c>
@@ -4136,7 +4125,7 @@
         <v>15VStock</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4156,7 +4145,7 @@
         <v>20VStock</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>219</v>
       </c>
@@ -4199,35 +4188,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB54"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U60" sqref="U60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y65" sqref="Y65:Z70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="19.375" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="12.875" customWidth="1"/>
-    <col min="15" max="15" width="29.375" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" customWidth="1"/>
+    <col min="15" max="15" width="29.33203125" customWidth="1"/>
     <col min="16" max="16" width="29" customWidth="1"/>
-    <col min="17" max="17" width="30.625" customWidth="1"/>
-    <col min="18" max="18" width="50.375" customWidth="1"/>
-    <col min="19" max="19" width="26.375" customWidth="1"/>
+    <col min="17" max="17" width="30.6640625" customWidth="1"/>
+    <col min="18" max="18" width="50.33203125" customWidth="1"/>
+    <col min="19" max="19" width="26.33203125" customWidth="1"/>
     <col min="20" max="20" width="29.5" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
-    <col min="22" max="22" width="16.125" customWidth="1"/>
-    <col min="23" max="23" width="15.875" customWidth="1"/>
+    <col min="22" max="22" width="16.1640625" customWidth="1"/>
+    <col min="23" max="23" width="15.83203125" customWidth="1"/>
+    <col min="27" max="27" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="16" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4313,7 +4303,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="16" thickTop="1">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -4330,7 +4320,7 @@
         <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G2">
         <v>22596</v>
@@ -4390,14 +4380,14 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>2.4VStock</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="AB2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" hidden="1">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -4468,7 +4458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" hidden="1">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -4539,7 +4529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" hidden="1">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -4610,7 +4600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -4627,7 +4617,7 @@
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G6">
         <v>37485</v>
@@ -4687,14 +4677,14 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>3.3VStock</v>
       </c>
-      <c r="AA6" s="6" t="s">
+      <c r="AA6" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="AB6" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AB6" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -4711,7 +4701,7 @@
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G7">
         <v>4342</v>
@@ -4771,14 +4761,14 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>3.6VStock</v>
       </c>
-      <c r="AA7" s="6" t="s">
+      <c r="AA7" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="AB7" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB7" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" hidden="1">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -4849,7 +4839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -4866,7 +4856,7 @@
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G9">
         <v>60453</v>
@@ -4926,14 +4916,14 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>4.3VStock</v>
       </c>
-      <c r="AA9" s="6" t="s">
+      <c r="AA9" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="AB9" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB9" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" hidden="1">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -5004,7 +4994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" hidden="1">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -5075,7 +5065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" hidden="1">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -5146,7 +5136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -5163,7 +5153,7 @@
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G13">
         <v>34534</v>
@@ -5223,14 +5213,14 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>5.1VStock</v>
       </c>
-      <c r="AA13" s="6" t="s">
+      <c r="AA13" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="AB13" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB13" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" hidden="1">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -5301,7 +5291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" hidden="1">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -5372,7 +5362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" hidden="1">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -5443,7 +5433,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" hidden="1">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -5514,7 +5504,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" hidden="1">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -5585,7 +5575,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" hidden="1">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -5656,7 +5646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" hidden="1">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -5727,7 +5717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" hidden="1">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -5798,7 +5788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" hidden="1">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -5869,7 +5859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -5886,7 +5876,7 @@
         <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G23">
         <v>42424</v>
@@ -5946,14 +5936,14 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>8.2VStock</v>
       </c>
-      <c r="AA23" s="6" t="s">
+      <c r="AA23" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="AB23" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB23" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" hidden="1">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -6024,7 +6014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" hidden="1">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -6095,7 +6085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" hidden="1">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -6166,7 +6156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -6183,7 +6173,7 @@
         <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G27">
         <v>26842</v>
@@ -6243,14 +6233,14 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>10VStock</v>
       </c>
-      <c r="AA27" s="6" t="s">
+      <c r="AA27" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="AB27" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB27" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" hidden="1">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -6321,7 +6311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" hidden="1">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -6392,7 +6382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" hidden="1">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -6463,7 +6453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" hidden="1">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -6534,7 +6524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" hidden="1">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -6605,7 +6595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" hidden="1">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -6676,7 +6666,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -6693,7 +6683,7 @@
         <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G34">
         <v>37226</v>
@@ -6753,14 +6743,14 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>15VStock</v>
       </c>
-      <c r="AA34" s="6" t="s">
+      <c r="AA34" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="AB34" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB34" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" hidden="1">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -6831,7 +6821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" hidden="1">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -6902,7 +6892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" hidden="1">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -6973,7 +6963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" hidden="1">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -7044,7 +7034,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -7061,7 +7051,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G39">
         <v>27370</v>
@@ -7121,14 +7111,14 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>20VStock</v>
       </c>
-      <c r="AA39" s="6" t="s">
+      <c r="AA39" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="AB39" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB39" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" hidden="1">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -7199,7 +7189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" hidden="1">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -7270,7 +7260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -7287,7 +7277,7 @@
         <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G42">
         <v>36470</v>
@@ -7347,14 +7337,14 @@
         <f>CONCATENATE(Table1[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table1[[#This Row],[Stock]])</f>
         <v>33VStock</v>
       </c>
-      <c r="AA42" s="6" t="s">
+      <c r="AA42" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="AB42" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB42" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" hidden="1">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -7425,7 +7415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" hidden="1">
       <c r="A44" t="s">
         <v>226</v>
       </c>
@@ -7496,7 +7486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" hidden="1">
       <c r="A45" t="s">
         <v>226</v>
       </c>
@@ -7567,7 +7557,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" hidden="1">
       <c r="A46" t="s">
         <v>226</v>
       </c>
@@ -7638,7 +7628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" hidden="1">
       <c r="A47" t="s">
         <v>226</v>
       </c>
@@ -7709,7 +7699,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" hidden="1">
       <c r="A48" t="s">
         <v>226</v>
       </c>
@@ -7780,7 +7770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" hidden="1">
       <c r="A49" t="s">
         <v>237</v>
       </c>
@@ -7851,7 +7841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" hidden="1">
       <c r="A50" t="s">
         <v>241</v>
       </c>
@@ -7922,7 +7912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" hidden="1">
       <c r="A51" t="s">
         <v>241</v>
       </c>
@@ -7993,7 +7983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" hidden="1">
       <c r="A52" t="s">
         <v>241</v>
       </c>
@@ -8064,7 +8054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" hidden="1">
       <c r="A53" t="s">
         <v>241</v>
       </c>
@@ -8135,7 +8125,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" hidden="1">
       <c r="A54" t="s">
         <v>241</v>
       </c>
@@ -8209,9 +8199,9 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -8225,40 +8215,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane xSplit="19320" ySplit="555" topLeftCell="W7" activePane="bottomRight"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="19320" ySplit="560" topLeftCell="W1" activePane="bottomLeft"/>
       <selection activeCell="AB1" sqref="AB1"/>
       <selection pane="topRight" activeCell="Y212" sqref="Y212"/>
-      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
+      <selection pane="bottomLeft" activeCell="AB250" sqref="Z240:AB250"/>
       <selection pane="bottomRight" activeCell="AA238" sqref="AA238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="19.375" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="12.875" customWidth="1"/>
-    <col min="15" max="15" width="29.375" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" customWidth="1"/>
+    <col min="15" max="15" width="29.33203125" customWidth="1"/>
     <col min="16" max="16" width="29" customWidth="1"/>
-    <col min="17" max="17" width="30.625" customWidth="1"/>
-    <col min="18" max="18" width="50.375" customWidth="1"/>
-    <col min="19" max="19" width="26.375" customWidth="1"/>
+    <col min="17" max="17" width="30.6640625" customWidth="1"/>
+    <col min="18" max="18" width="50.33203125" customWidth="1"/>
+    <col min="19" max="19" width="26.33203125" customWidth="1"/>
     <col min="20" max="20" width="29.5" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
-    <col min="22" max="22" width="16.125" customWidth="1"/>
-    <col min="23" max="23" width="15.875" customWidth="1"/>
-    <col min="27" max="27" width="35.375" customWidth="1"/>
+    <col min="22" max="22" width="16.1640625" customWidth="1"/>
+    <col min="23" max="23" width="15.83203125" customWidth="1"/>
+    <col min="27" max="27" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="16" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8344,7 +8334,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="16" hidden="1" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>259</v>
       </c>
@@ -8423,7 +8413,7 @@
         <v>100V</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="16" hidden="1" thickTop="1">
       <c r="A3" s="3" t="s">
         <v>259</v>
       </c>
@@ -8502,7 +8492,7 @@
         <v>100V</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="16" hidden="1" thickTop="1">
       <c r="A4" s="3" t="s">
         <v>259</v>
       </c>
@@ -8581,7 +8571,7 @@
         <v>100V</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="16" hidden="1" thickTop="1">
       <c r="A5" s="3" t="s">
         <v>271</v>
       </c>
@@ -8660,7 +8650,7 @@
         <v>10V</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="16" hidden="1" thickTop="1">
       <c r="A6" s="3" t="s">
         <v>259</v>
       </c>
@@ -8739,7 +8729,7 @@
         <v>10V</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="16" thickTop="1">
       <c r="A7" s="3" t="s">
         <v>259</v>
       </c>
@@ -8820,14 +8810,14 @@
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>10VStock</v>
       </c>
-      <c r="AA7" s="6" t="s">
+      <c r="AA7" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="AB7" s="5" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB7" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" hidden="1">
       <c r="A8" s="3" t="s">
         <v>259</v>
       </c>
@@ -8906,7 +8896,7 @@
         <v>10V</v>
       </c>
     </row>
-    <row r="9" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" hidden="1">
       <c r="A9" s="3" t="s">
         <v>811</v>
       </c>
@@ -8985,7 +8975,7 @@
         <v>110V</v>
       </c>
     </row>
-    <row r="10" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" hidden="1">
       <c r="A10" s="3" t="s">
         <v>811</v>
       </c>
@@ -9064,7 +9054,7 @@
         <v>110V</v>
       </c>
     </row>
-    <row r="11" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" hidden="1">
       <c r="A11" s="3" t="s">
         <v>259</v>
       </c>
@@ -9143,7 +9133,7 @@
         <v>11V</v>
       </c>
     </row>
-    <row r="12" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" hidden="1">
       <c r="A12" s="3" t="s">
         <v>259</v>
       </c>
@@ -9222,7 +9212,7 @@
         <v>11V</v>
       </c>
     </row>
-    <row r="13" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" hidden="1">
       <c r="A13" s="3" t="s">
         <v>259</v>
       </c>
@@ -9301,7 +9291,7 @@
         <v>11V</v>
       </c>
     </row>
-    <row r="14" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" hidden="1">
       <c r="A14" s="3" t="s">
         <v>259</v>
       </c>
@@ -9380,7 +9370,7 @@
         <v>120V</v>
       </c>
     </row>
-    <row r="15" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" hidden="1">
       <c r="A15" s="3" t="s">
         <v>259</v>
       </c>
@@ -9459,7 +9449,7 @@
         <v>120V</v>
       </c>
     </row>
-    <row r="16" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" hidden="1">
       <c r="A16" s="3" t="s">
         <v>259</v>
       </c>
@@ -9538,7 +9528,7 @@
         <v>12V</v>
       </c>
     </row>
-    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" hidden="1">
       <c r="A17" s="3" t="s">
         <v>271</v>
       </c>
@@ -9617,7 +9607,7 @@
         <v>12V</v>
       </c>
     </row>
-    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" hidden="1">
       <c r="A18" s="3" t="s">
         <v>259</v>
       </c>
@@ -9696,7 +9686,7 @@
         <v>12V</v>
       </c>
     </row>
-    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" hidden="1">
       <c r="A19" s="3" t="s">
         <v>271</v>
       </c>
@@ -9775,7 +9765,7 @@
         <v>12V</v>
       </c>
     </row>
-    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" hidden="1">
       <c r="A20" s="3" t="s">
         <v>259</v>
       </c>
@@ -9854,7 +9844,7 @@
         <v>12V</v>
       </c>
     </row>
-    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" hidden="1">
       <c r="A21" s="3" t="s">
         <v>271</v>
       </c>
@@ -9933,7 +9923,7 @@
         <v>12V</v>
       </c>
     </row>
-    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" hidden="1">
       <c r="A22" s="3" t="s">
         <v>259</v>
       </c>
@@ -10012,7 +10002,7 @@
         <v>12V</v>
       </c>
     </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" hidden="1">
       <c r="A23" s="3" t="s">
         <v>259</v>
       </c>
@@ -10091,7 +10081,7 @@
         <v>130V</v>
       </c>
     </row>
-    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" hidden="1">
       <c r="A24" s="3" t="s">
         <v>271</v>
       </c>
@@ -10170,7 +10160,7 @@
         <v>130V</v>
       </c>
     </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" hidden="1">
       <c r="A25" s="3" t="s">
         <v>259</v>
       </c>
@@ -10249,7 +10239,7 @@
         <v>130V</v>
       </c>
     </row>
-    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" hidden="1">
       <c r="A26" s="3" t="s">
         <v>259</v>
       </c>
@@ -10328,7 +10318,7 @@
         <v>130V</v>
       </c>
     </row>
-    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" hidden="1">
       <c r="A27" s="3" t="s">
         <v>259</v>
       </c>
@@ -10407,7 +10397,7 @@
         <v>13V</v>
       </c>
     </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" hidden="1">
       <c r="A28" s="3" t="s">
         <v>259</v>
       </c>
@@ -10486,7 +10476,7 @@
         <v>13V</v>
       </c>
     </row>
-    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" hidden="1">
       <c r="A29" s="3" t="s">
         <v>259</v>
       </c>
@@ -10565,7 +10555,7 @@
         <v>13V</v>
       </c>
     </row>
-    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" hidden="1">
       <c r="A30" s="3" t="s">
         <v>259</v>
       </c>
@@ -10644,7 +10634,7 @@
         <v>13V</v>
       </c>
     </row>
-    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" hidden="1">
       <c r="A31" s="3" t="s">
         <v>259</v>
       </c>
@@ -10723,7 +10713,7 @@
         <v>14V</v>
       </c>
     </row>
-    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" hidden="1">
       <c r="A32" s="3" t="s">
         <v>259</v>
       </c>
@@ -10802,7 +10792,7 @@
         <v>14V</v>
       </c>
     </row>
-    <row r="33" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" hidden="1">
       <c r="A33" s="3" t="s">
         <v>259</v>
       </c>
@@ -10881,7 +10871,7 @@
         <v>14V</v>
       </c>
     </row>
-    <row r="34" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" hidden="1">
       <c r="A34" s="3" t="s">
         <v>259</v>
       </c>
@@ -10960,7 +10950,7 @@
         <v>150V</v>
       </c>
     </row>
-    <row r="35" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" hidden="1">
       <c r="A35" s="3" t="s">
         <v>259</v>
       </c>
@@ -11039,7 +11029,7 @@
         <v>150V</v>
       </c>
     </row>
-    <row r="36" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" hidden="1">
       <c r="A36" s="3" t="s">
         <v>271</v>
       </c>
@@ -11118,7 +11108,7 @@
         <v>150V</v>
       </c>
     </row>
-    <row r="37" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" hidden="1">
       <c r="A37" s="3" t="s">
         <v>271</v>
       </c>
@@ -11197,7 +11187,7 @@
         <v>150V</v>
       </c>
     </row>
-    <row r="38" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" hidden="1">
       <c r="A38" s="3" t="s">
         <v>259</v>
       </c>
@@ -11276,7 +11266,7 @@
         <v>150V</v>
       </c>
     </row>
-    <row r="39" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" hidden="1">
       <c r="A39" s="3" t="s">
         <v>271</v>
       </c>
@@ -11355,7 +11345,7 @@
         <v>150V</v>
       </c>
     </row>
-    <row r="40" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" hidden="1">
       <c r="A40" s="3" t="s">
         <v>259</v>
       </c>
@@ -11434,7 +11424,7 @@
         <v>150V</v>
       </c>
     </row>
-    <row r="41" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" hidden="1">
       <c r="A41" s="3" t="s">
         <v>271</v>
       </c>
@@ -11513,7 +11503,7 @@
         <v>15V</v>
       </c>
     </row>
-    <row r="42" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" hidden="1">
       <c r="A42" s="3" t="s">
         <v>271</v>
       </c>
@@ -11592,7 +11582,7 @@
         <v>15V</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28">
       <c r="A43" s="3" t="s">
         <v>259</v>
       </c>
@@ -11673,14 +11663,14 @@
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>15VStock</v>
       </c>
-      <c r="AA43" s="6" t="s">
+      <c r="AA43" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="AB43" s="5" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB43" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" hidden="1">
       <c r="A44" s="3" t="s">
         <v>259</v>
       </c>
@@ -11759,7 +11749,7 @@
         <v>15V</v>
       </c>
     </row>
-    <row r="45" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" hidden="1">
       <c r="A45" s="3" t="s">
         <v>259</v>
       </c>
@@ -11838,7 +11828,7 @@
         <v>15V</v>
       </c>
     </row>
-    <row r="46" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" hidden="1">
       <c r="A46" s="3" t="s">
         <v>271</v>
       </c>
@@ -11917,7 +11907,7 @@
         <v>15V</v>
       </c>
     </row>
-    <row r="47" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" hidden="1">
       <c r="A47" s="3" t="s">
         <v>271</v>
       </c>
@@ -11996,7 +11986,7 @@
         <v>15V</v>
       </c>
     </row>
-    <row r="48" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" hidden="1">
       <c r="A48" s="3" t="s">
         <v>259</v>
       </c>
@@ -12075,7 +12065,7 @@
         <v>15V</v>
       </c>
     </row>
-    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" hidden="1">
       <c r="A49" s="3" t="s">
         <v>259</v>
       </c>
@@ -12154,7 +12144,7 @@
         <v>160V</v>
       </c>
     </row>
-    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" hidden="1">
       <c r="A50" s="3" t="s">
         <v>259</v>
       </c>
@@ -12233,7 +12223,7 @@
         <v>160V</v>
       </c>
     </row>
-    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" hidden="1">
       <c r="A51" s="3" t="s">
         <v>259</v>
       </c>
@@ -12312,7 +12302,7 @@
         <v>16V</v>
       </c>
     </row>
-    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" hidden="1">
       <c r="A52" s="3" t="s">
         <v>259</v>
       </c>
@@ -12391,7 +12381,7 @@
         <v>16V</v>
       </c>
     </row>
-    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" hidden="1">
       <c r="A53" s="3" t="s">
         <v>716</v>
       </c>
@@ -12470,7 +12460,7 @@
         <v>16V</v>
       </c>
     </row>
-    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" hidden="1">
       <c r="A54" s="3" t="s">
         <v>259</v>
       </c>
@@ -12549,7 +12539,7 @@
         <v>16V</v>
       </c>
     </row>
-    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" hidden="1">
       <c r="A55" s="3" t="s">
         <v>259</v>
       </c>
@@ -12628,7 +12618,7 @@
         <v>17V</v>
       </c>
     </row>
-    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" hidden="1">
       <c r="A56" s="3" t="s">
         <v>259</v>
       </c>
@@ -12707,7 +12697,7 @@
         <v>17V</v>
       </c>
     </row>
-    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" hidden="1">
       <c r="A57" s="3" t="s">
         <v>259</v>
       </c>
@@ -12786,7 +12776,7 @@
         <v>17V</v>
       </c>
     </row>
-    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" hidden="1">
       <c r="A58" s="3" t="s">
         <v>271</v>
       </c>
@@ -12865,7 +12855,7 @@
         <v>180V</v>
       </c>
     </row>
-    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" hidden="1">
       <c r="A59" s="3" t="s">
         <v>259</v>
       </c>
@@ -12944,7 +12934,7 @@
         <v>180V</v>
       </c>
     </row>
-    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" hidden="1">
       <c r="A60" s="3" t="s">
         <v>259</v>
       </c>
@@ -13023,7 +13013,7 @@
         <v>180V</v>
       </c>
     </row>
-    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" hidden="1">
       <c r="A61" s="3" t="s">
         <v>259</v>
       </c>
@@ -13102,7 +13092,7 @@
         <v>180V</v>
       </c>
     </row>
-    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" hidden="1">
       <c r="A62" s="3" t="s">
         <v>271</v>
       </c>
@@ -13181,7 +13171,7 @@
         <v>180V</v>
       </c>
     </row>
-    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" hidden="1">
       <c r="A63" s="3" t="s">
         <v>271</v>
       </c>
@@ -13260,7 +13250,7 @@
         <v>180V</v>
       </c>
     </row>
-    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" hidden="1">
       <c r="A64" s="3" t="s">
         <v>271</v>
       </c>
@@ -13339,7 +13329,7 @@
         <v>18V</v>
       </c>
     </row>
-    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" hidden="1">
       <c r="A65" s="3" t="s">
         <v>259</v>
       </c>
@@ -13413,12 +13403,12 @@
         <f>VLOOKUP(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Values!$A$11:'Values'!$E$20,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z65" t="str">
+      <c r="Z65" s="6" t="str">
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>18V</v>
       </c>
     </row>
-    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" hidden="1">
       <c r="A66" s="3" t="s">
         <v>259</v>
       </c>
@@ -13492,12 +13482,12 @@
         <f>VLOOKUP(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Values!$A$11:'Values'!$E$20,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z66" t="str">
+      <c r="Z66" s="6" t="str">
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>18V</v>
       </c>
     </row>
-    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" hidden="1">
       <c r="A67" s="3" t="s">
         <v>716</v>
       </c>
@@ -13571,12 +13561,12 @@
         <f>VLOOKUP(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Values!$A$11:'Values'!$E$20,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z67" t="str">
+      <c r="Z67" s="6" t="str">
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>18V</v>
       </c>
     </row>
-    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" hidden="1">
       <c r="A68" s="3" t="s">
         <v>271</v>
       </c>
@@ -13650,12 +13640,12 @@
         <f>VLOOKUP(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Values!$A$11:'Values'!$E$20,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z68" t="str">
+      <c r="Z68" s="6" t="str">
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>18V</v>
       </c>
     </row>
-    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" hidden="1">
       <c r="A69" s="3" t="s">
         <v>271</v>
       </c>
@@ -13729,12 +13719,12 @@
         <f>VLOOKUP(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Values!$A$11:'Values'!$E$20,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z69" t="str">
+      <c r="Z69" s="6" t="str">
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>18V</v>
       </c>
     </row>
-    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" hidden="1">
       <c r="A70" s="3" t="s">
         <v>259</v>
       </c>
@@ -13808,12 +13798,12 @@
         <f>VLOOKUP(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Values!$A$11:'Values'!$E$20,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z70" t="str">
+      <c r="Z70" s="6" t="str">
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>18V</v>
       </c>
     </row>
-    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" hidden="1">
       <c r="A71" s="3" t="s">
         <v>954</v>
       </c>
@@ -13892,7 +13882,7 @@
         <v>18V</v>
       </c>
     </row>
-    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" hidden="1">
       <c r="A72" s="3" t="s">
         <v>259</v>
       </c>
@@ -13971,7 +13961,7 @@
         <v>190V</v>
       </c>
     </row>
-    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" hidden="1">
       <c r="A73" s="3" t="s">
         <v>259</v>
       </c>
@@ -14050,7 +14040,7 @@
         <v>19V</v>
       </c>
     </row>
-    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" hidden="1">
       <c r="A74" s="3" t="s">
         <v>259</v>
       </c>
@@ -14129,7 +14119,7 @@
         <v>19V</v>
       </c>
     </row>
-    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" hidden="1">
       <c r="A75" s="3" t="s">
         <v>271</v>
       </c>
@@ -14208,7 +14198,7 @@
         <v>200V</v>
       </c>
     </row>
-    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" hidden="1">
       <c r="A76" s="3" t="s">
         <v>259</v>
       </c>
@@ -14287,7 +14277,7 @@
         <v>200V</v>
       </c>
     </row>
-    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" hidden="1">
       <c r="A77" s="3" t="s">
         <v>271</v>
       </c>
@@ -14366,7 +14356,7 @@
         <v>200V</v>
       </c>
     </row>
-    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" hidden="1">
       <c r="A78" s="3" t="s">
         <v>259</v>
       </c>
@@ -14445,7 +14435,7 @@
         <v>200V</v>
       </c>
     </row>
-    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" hidden="1">
       <c r="A79" s="3" t="s">
         <v>259</v>
       </c>
@@ -14524,7 +14514,7 @@
         <v>200V</v>
       </c>
     </row>
-    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" hidden="1">
       <c r="A80" s="3" t="s">
         <v>271</v>
       </c>
@@ -14603,7 +14593,7 @@
         <v>200V</v>
       </c>
     </row>
-    <row r="81" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" hidden="1">
       <c r="A81" s="3" t="s">
         <v>259</v>
       </c>
@@ -14682,7 +14672,7 @@
         <v>200V</v>
       </c>
     </row>
-    <row r="82" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" hidden="1">
       <c r="A82" s="3" t="s">
         <v>259</v>
       </c>
@@ -14761,7 +14751,7 @@
         <v>20V</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28">
       <c r="A83" s="3" t="s">
         <v>259</v>
       </c>
@@ -14842,14 +14832,14 @@
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>20VStock</v>
       </c>
-      <c r="AA83" s="6" t="s">
+      <c r="AA83" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="AB83" s="5" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB83" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" hidden="1">
       <c r="A84" s="3" t="s">
         <v>271</v>
       </c>
@@ -14928,7 +14918,7 @@
         <v>20V</v>
       </c>
     </row>
-    <row r="85" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" hidden="1">
       <c r="A85" s="3" t="s">
         <v>259</v>
       </c>
@@ -15007,7 +14997,7 @@
         <v>20V</v>
       </c>
     </row>
-    <row r="86" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" hidden="1">
       <c r="A86" s="3" t="s">
         <v>259</v>
       </c>
@@ -15086,7 +15076,7 @@
         <v>20V</v>
       </c>
     </row>
-    <row r="87" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" hidden="1">
       <c r="A87" s="3" t="s">
         <v>259</v>
       </c>
@@ -15165,7 +15155,7 @@
         <v>22V</v>
       </c>
     </row>
-    <row r="88" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" hidden="1">
       <c r="A88" s="3" t="s">
         <v>259</v>
       </c>
@@ -15244,7 +15234,7 @@
         <v>22V</v>
       </c>
     </row>
-    <row r="89" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" hidden="1">
       <c r="A89" s="3" t="s">
         <v>259</v>
       </c>
@@ -15323,7 +15313,7 @@
         <v>22V</v>
       </c>
     </row>
-    <row r="90" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" hidden="1">
       <c r="A90" s="3" t="s">
         <v>271</v>
       </c>
@@ -15402,7 +15392,7 @@
         <v>24V</v>
       </c>
     </row>
-    <row r="91" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" hidden="1">
       <c r="A91" s="3" t="s">
         <v>259</v>
       </c>
@@ -15481,7 +15471,7 @@
         <v>24V</v>
       </c>
     </row>
-    <row r="92" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" hidden="1">
       <c r="A92" s="3" t="s">
         <v>271</v>
       </c>
@@ -15560,7 +15550,7 @@
         <v>24V</v>
       </c>
     </row>
-    <row r="93" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" hidden="1">
       <c r="A93" s="3" t="s">
         <v>259</v>
       </c>
@@ -15639,7 +15629,7 @@
         <v>24V</v>
       </c>
     </row>
-    <row r="94" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" hidden="1">
       <c r="A94" s="3" t="s">
         <v>259</v>
       </c>
@@ -15718,7 +15708,7 @@
         <v>24V</v>
       </c>
     </row>
-    <row r="95" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" hidden="1">
       <c r="A95" s="3" t="s">
         <v>271</v>
       </c>
@@ -15797,7 +15787,7 @@
         <v>24V</v>
       </c>
     </row>
-    <row r="96" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" hidden="1">
       <c r="A96" s="3" t="s">
         <v>259</v>
       </c>
@@ -15876,7 +15866,7 @@
         <v>24V</v>
       </c>
     </row>
-    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" hidden="1">
       <c r="A97" s="3" t="s">
         <v>954</v>
       </c>
@@ -15955,7 +15945,7 @@
         <v>24V</v>
       </c>
     </row>
-    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" hidden="1">
       <c r="A98" s="3" t="s">
         <v>954</v>
       </c>
@@ -16034,7 +16024,7 @@
         <v>24V</v>
       </c>
     </row>
-    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" hidden="1">
       <c r="A99" s="3" t="s">
         <v>259</v>
       </c>
@@ -16113,7 +16103,7 @@
         <v>25V</v>
       </c>
     </row>
-    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" hidden="1">
       <c r="A100" s="3" t="s">
         <v>259</v>
       </c>
@@ -16192,7 +16182,7 @@
         <v>25V</v>
       </c>
     </row>
-    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" hidden="1">
       <c r="A101" s="3" t="s">
         <v>259</v>
       </c>
@@ -16271,7 +16261,7 @@
         <v>25V</v>
       </c>
     </row>
-    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" hidden="1">
       <c r="A102" s="3" t="s">
         <v>259</v>
       </c>
@@ -16350,7 +16340,7 @@
         <v>27V</v>
       </c>
     </row>
-    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" hidden="1">
       <c r="A103" s="3" t="s">
         <v>259</v>
       </c>
@@ -16429,7 +16419,7 @@
         <v>27V</v>
       </c>
     </row>
-    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" hidden="1">
       <c r="A104" s="3" t="s">
         <v>271</v>
       </c>
@@ -16508,7 +16498,7 @@
         <v>27V</v>
       </c>
     </row>
-    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" hidden="1">
       <c r="A105" s="3" t="s">
         <v>259</v>
       </c>
@@ -16587,7 +16577,7 @@
         <v>27V</v>
       </c>
     </row>
-    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" hidden="1">
       <c r="A106" s="3" t="s">
         <v>271</v>
       </c>
@@ -16666,7 +16656,7 @@
         <v>27V</v>
       </c>
     </row>
-    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" hidden="1">
       <c r="A107" s="3" t="s">
         <v>271</v>
       </c>
@@ -16745,7 +16735,7 @@
         <v>27V</v>
       </c>
     </row>
-    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" hidden="1">
       <c r="A108" s="3" t="s">
         <v>259</v>
       </c>
@@ -16824,7 +16814,7 @@
         <v>27V</v>
       </c>
     </row>
-    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" hidden="1">
       <c r="A109" s="3" t="s">
         <v>259</v>
       </c>
@@ -16903,7 +16893,7 @@
         <v>28V</v>
       </c>
     </row>
-    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" hidden="1">
       <c r="A110" s="3" t="s">
         <v>259</v>
       </c>
@@ -16982,7 +16972,7 @@
         <v>28V</v>
       </c>
     </row>
-    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" hidden="1">
       <c r="A111" s="3" t="s">
         <v>259</v>
       </c>
@@ -17061,7 +17051,7 @@
         <v>28V</v>
       </c>
     </row>
-    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" hidden="1">
       <c r="A112" s="3" t="s">
         <v>259</v>
       </c>
@@ -17140,7 +17130,7 @@
         <v>28V</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28">
       <c r="A113" s="3" t="s">
         <v>259</v>
       </c>
@@ -17221,14 +17211,14 @@
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>3.3VStock</v>
       </c>
-      <c r="AA113" s="6" t="s">
+      <c r="AA113" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="AB113" s="5" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="114" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB113" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" hidden="1">
       <c r="A114" s="3" t="s">
         <v>259</v>
       </c>
@@ -17307,7 +17297,7 @@
         <v>3.3V</v>
       </c>
     </row>
-    <row r="115" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" hidden="1">
       <c r="A115" s="3" t="s">
         <v>271</v>
       </c>
@@ -17386,7 +17376,7 @@
         <v>3.3V</v>
       </c>
     </row>
-    <row r="116" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" hidden="1">
       <c r="A116" s="3" t="s">
         <v>259</v>
       </c>
@@ -17465,7 +17455,7 @@
         <v>3.3V</v>
       </c>
     </row>
-    <row r="117" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" hidden="1">
       <c r="A117" s="3" t="s">
         <v>271</v>
       </c>
@@ -17544,7 +17534,7 @@
         <v>3.3V</v>
       </c>
     </row>
-    <row r="118" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" hidden="1">
       <c r="A118" s="3" t="s">
         <v>271</v>
       </c>
@@ -17623,7 +17613,7 @@
         <v>3.3V</v>
       </c>
     </row>
-    <row r="119" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" hidden="1">
       <c r="A119" s="3" t="s">
         <v>259</v>
       </c>
@@ -17702,7 +17692,7 @@
         <v>3.3V</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28">
       <c r="A120" s="3" t="s">
         <v>259</v>
       </c>
@@ -17783,14 +17773,14 @@
         <f>CONCATENATE(Table13[[#This Row],[Voltage - Zener (Nom) (Vz)]],Table13[[#This Row],[Stock]])</f>
         <v>3.6VStock</v>
       </c>
-      <c r="AA120" s="6" t="s">
+      <c r="AA120" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="AB120" s="5" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="121" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB120" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" hidden="1">
       <c r="A121" s="3" t="s">
         <v>259</v>
       </c>
@@ -17869,7 +17859,7 @@
         <v>3.6V</v>
       </c>
     </row>
-    <row r="122" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" hidden="1">
       <c r="A122" s="3" t="s">
         <v>878</v>
       </c>
@@ -17948,7 +17938,7 @@
         <v>3.6V</v>
       </c>
     </row>
-    <row r="123" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" hidden="1">
       <c r="A123" s="3" t="s">
         <v>259</v>
       </c>
@@ -18027,7 +18017,7 @@
         <v>3.6V</v>
       </c>
     </row>
-    <row r="124" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" hidden="1">
       <c r="A124" s="3" t="s">
         <v>954</v>
       </c>
@@ -18106,7 +18096,7 @@
         <v>3.6V</v>
       </c>
     </row>
-    <row r="125" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" hidden="1">
       <c r="A125" s="3" t="s">
         <v>259</v>
       </c>
@@ -18185,7 +18175,7 @@
         <v>3.9V</v>
       </c>
     </row>
-    <row r="126" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" hidden="1">
       <c r="A126" s="3" t="s">
         <v>259</v>
       </c>
@@ -18264,7 +18254,7 @@
         <v>3.9V</v>
       </c>
     </row>
-    <row r="127" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" hidden="1">
       <c r="A127" s="3" t="s">
         <v>259</v>
       </c>
@@ -18343,7 +18333,7 @@
         <v>3.9V</v>
       </c>
     </row>
-    <row r="128" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" hidden="1">
       <c r="A128" s="3" t="s">
         <v>259</v>
       </c>
@@ -18422,7 +18412,7 @@
         <v>3.9V</v>
       </c>
     </row>
-    <row r="129" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" hidden="1">
       <c r="A129" s="3" t="s">
         <v>259</v>
       </c>
@@ -18501,7 +18491,7 @@
         <v>30V</v>
       </c>
     </row>
-    <row r="130" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" hidden="1">
       <c r="A130" s="3" t="s">
         <v>259</v>
       </c>
@@ -18580,7 +18570,7 @@
         <v>30V</v>
       </c>
     </row>
-    <row r="131" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" hidden="1">
       <c r="A131" s="3" t="s">
         <v>259</v>
       </c>
@@ -18659,7 +18649,7 @@
         <v>30V</v>
       </c>
     </row>
-    <row r="132" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" hidden="1">
       <c r="A132" s="3" t="s">
         <v>271</v>
       </c>
@@ -18738,7 +18728,7 @@
         <v>30V</v>
       </c>
     </row>
-    <row r="133" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" hidden="1">
       <c r="A133" s="3" t="s">
         <v>271</v>
       </c>
@@ -18817,7 +18807,7 @@
         <v>30V</v>
       </c>
     </row>
-    <row r="134" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" hidden="1">
       <c r="A134" s="3" t="s">
         <v>259</v>
       </c>
@@ -18896,7 +18886,7 @@
         <v>30V</v>
       </c>
     </row>
-    <row r="135" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" hidden="1">
       <c r="A135" s="3" t="s">
         <v>259</v>
       </c>
@@ -18975,7 +18965,7 @@
         <v>33V</v>
       </c>
     </row>
-    <row r="136" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" hidden="1">
       <c r="A136" s="3" t="s">
         <v>271</v>
       </c>
@@ -19054,7 +19044,7 @@
         <v>33V</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28">
       <c r="A137" s="3" t="s">
         <v>259</v>
       </c>
@@ -19138,11 +19128,11 @@
       <c r="AA137" t="s">
         <v>976</v>
       </c>
-      <c r="AB137" s="5" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="138" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB137" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" hidden="1">
       <c r="A138" s="3" t="s">
         <v>259</v>
       </c>
@@ -19221,7 +19211,7 @@
         <v>33V</v>
       </c>
     </row>
-    <row r="139" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" hidden="1">
       <c r="A139" s="3" t="s">
         <v>271</v>
       </c>
@@ -19300,7 +19290,7 @@
         <v>33V</v>
       </c>
     </row>
-    <row r="140" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" hidden="1">
       <c r="A140" s="3" t="s">
         <v>271</v>
       </c>
@@ -19379,7 +19369,7 @@
         <v>33V</v>
       </c>
     </row>
-    <row r="141" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" hidden="1">
       <c r="A141" s="3" t="s">
         <v>259</v>
       </c>
@@ -19458,7 +19448,7 @@
         <v>33V</v>
       </c>
     </row>
-    <row r="142" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" hidden="1">
       <c r="A142" s="3" t="s">
         <v>259</v>
       </c>
@@ -19537,7 +19527,7 @@
         <v>36V</v>
       </c>
     </row>
-    <row r="143" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" hidden="1">
       <c r="A143" s="3" t="s">
         <v>271</v>
       </c>
@@ -19616,7 +19606,7 @@
         <v>36V</v>
       </c>
     </row>
-    <row r="144" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" hidden="1">
       <c r="A144" s="3" t="s">
         <v>259</v>
       </c>
@@ -19695,7 +19685,7 @@
         <v>36V</v>
       </c>
     </row>
-    <row r="145" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" hidden="1">
       <c r="A145" s="3" t="s">
         <v>259</v>
       </c>
@@ -19774,7 +19764,7 @@
         <v>36V</v>
       </c>
     </row>
-    <row r="146" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" hidden="1">
       <c r="A146" s="3" t="s">
         <v>271</v>
       </c>
@@ -19853,7 +19843,7 @@
         <v>36V</v>
       </c>
     </row>
-    <row r="147" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" hidden="1">
       <c r="A147" s="3" t="s">
         <v>271</v>
       </c>
@@ -19932,7 +19922,7 @@
         <v>36V</v>
       </c>
     </row>
-    <row r="148" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" hidden="1">
       <c r="A148" s="3" t="s">
         <v>259</v>
       </c>
@@ -20011,7 +20001,7 @@
         <v>36V</v>
       </c>
     </row>
-    <row r="149" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" hidden="1">
       <c r="A149" s="3" t="s">
         <v>259</v>
       </c>
@@ -20090,7 +20080,7 @@
         <v>39V</v>
       </c>
     </row>
-    <row r="150" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" hidden="1">
       <c r="A150" s="3" t="s">
         <v>259</v>
       </c>
@@ -20169,7 +20159,7 @@
         <v>39V</v>
       </c>
     </row>
-    <row r="151" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" hidden="1">
       <c r="A151" s="3" t="s">
         <v>259</v>
       </c>
@@ -20248,7 +20238,7 @@
         <v>39V</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28">
       <c r="A152" s="3" t="s">
         <v>259</v>
       </c>
@@ -20332,11 +20322,11 @@
       <c r="AA152" t="s">
         <v>976</v>
       </c>
-      <c r="AB152" s="5" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="153" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB152" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" hidden="1">
       <c r="A153" s="3" t="s">
         <v>259</v>
       </c>
@@ -20415,7 +20405,7 @@
         <v>4.3V</v>
       </c>
     </row>
-    <row r="154" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" hidden="1">
       <c r="A154" s="3" t="s">
         <v>259</v>
       </c>
@@ -20494,7 +20484,7 @@
         <v>4.7V</v>
       </c>
     </row>
-    <row r="155" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" hidden="1">
       <c r="A155" s="3" t="s">
         <v>271</v>
       </c>
@@ -20573,7 +20563,7 @@
         <v>4.7V</v>
       </c>
     </row>
-    <row r="156" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" hidden="1">
       <c r="A156" s="3" t="s">
         <v>259</v>
       </c>
@@ -20652,7 +20642,7 @@
         <v>4.7V</v>
       </c>
     </row>
-    <row r="157" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" hidden="1">
       <c r="A157" s="3" t="s">
         <v>259</v>
       </c>
@@ -20731,7 +20721,7 @@
         <v>4.7V</v>
       </c>
     </row>
-    <row r="158" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" hidden="1">
       <c r="A158" s="3" t="s">
         <v>259</v>
       </c>
@@ -20810,7 +20800,7 @@
         <v>43V</v>
       </c>
     </row>
-    <row r="159" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" hidden="1">
       <c r="A159" s="3" t="s">
         <v>259</v>
       </c>
@@ -20889,7 +20879,7 @@
         <v>43V</v>
       </c>
     </row>
-    <row r="160" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" hidden="1">
       <c r="A160" s="3" t="s">
         <v>271</v>
       </c>
@@ -20968,7 +20958,7 @@
         <v>43V</v>
       </c>
     </row>
-    <row r="161" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" hidden="1">
       <c r="A161" s="3" t="s">
         <v>259</v>
       </c>
@@ -21047,7 +21037,7 @@
         <v>43V</v>
       </c>
     </row>
-    <row r="162" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" hidden="1">
       <c r="A162" s="3" t="s">
         <v>259</v>
       </c>
@@ -21126,7 +21116,7 @@
         <v>47V</v>
       </c>
     </row>
-    <row r="163" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" hidden="1">
       <c r="A163" s="3" t="s">
         <v>259</v>
       </c>
@@ -21205,7 +21195,7 @@
         <v>47V</v>
       </c>
     </row>
-    <row r="164" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" hidden="1">
       <c r="A164" s="3" t="s">
         <v>271</v>
       </c>
@@ -21284,7 +21274,7 @@
         <v>47V</v>
       </c>
     </row>
-    <row r="165" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" hidden="1">
       <c r="A165" s="3" t="s">
         <v>271</v>
       </c>
@@ -21363,7 +21353,7 @@
         <v>47V</v>
       </c>
     </row>
-    <row r="166" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" hidden="1">
       <c r="A166" s="3" t="s">
         <v>271</v>
       </c>
@@ -21442,7 +21432,7 @@
         <v>47V</v>
       </c>
     </row>
-    <row r="167" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" hidden="1">
       <c r="A167" s="3" t="s">
         <v>259</v>
       </c>
@@ -21521,7 +21511,7 @@
         <v>47V</v>
       </c>
     </row>
-    <row r="168" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" hidden="1">
       <c r="A168" s="3" t="s">
         <v>259</v>
       </c>
@@ -21600,7 +21590,7 @@
         <v>5.1V</v>
       </c>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28">
       <c r="A169" s="3" t="s">
         <v>259</v>
       </c>
@@ -21684,11 +21674,11 @@
       <c r="AA169" t="s">
         <v>976</v>
       </c>
-      <c r="AB169" s="5" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="170" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB169" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28" hidden="1">
       <c r="A170" s="3" t="s">
         <v>259</v>
       </c>
@@ -21767,7 +21757,7 @@
         <v>5.1V</v>
       </c>
     </row>
-    <row r="171" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" hidden="1">
       <c r="A171" s="3" t="s">
         <v>259</v>
       </c>
@@ -21846,7 +21836,7 @@
         <v>5.1V</v>
       </c>
     </row>
-    <row r="172" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" hidden="1">
       <c r="A172" s="3" t="s">
         <v>259</v>
       </c>
@@ -21925,7 +21915,7 @@
         <v>5.6V</v>
       </c>
     </row>
-    <row r="173" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" hidden="1">
       <c r="A173" s="3" t="s">
         <v>271</v>
       </c>
@@ -22004,7 +21994,7 @@
         <v>5.6V</v>
       </c>
     </row>
-    <row r="174" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" hidden="1">
       <c r="A174" s="3" t="s">
         <v>259</v>
       </c>
@@ -22083,7 +22073,7 @@
         <v>5.6V</v>
       </c>
     </row>
-    <row r="175" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" hidden="1">
       <c r="A175" s="3" t="s">
         <v>271</v>
       </c>
@@ -22162,7 +22152,7 @@
         <v>5.6V</v>
       </c>
     </row>
-    <row r="176" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" hidden="1">
       <c r="A176" s="3" t="s">
         <v>271</v>
       </c>
@@ -22241,7 +22231,7 @@
         <v>5.6V</v>
       </c>
     </row>
-    <row r="177" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" hidden="1">
       <c r="A177" s="3" t="s">
         <v>259</v>
       </c>
@@ -22320,7 +22310,7 @@
         <v>5.6V</v>
       </c>
     </row>
-    <row r="178" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" hidden="1">
       <c r="A178" s="3" t="s">
         <v>259</v>
       </c>
@@ -22399,7 +22389,7 @@
         <v>51V</v>
       </c>
     </row>
-    <row r="179" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" hidden="1">
       <c r="A179" s="3" t="s">
         <v>259</v>
       </c>
@@ -22478,7 +22468,7 @@
         <v>51V</v>
       </c>
     </row>
-    <row r="180" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" hidden="1">
       <c r="A180" s="3" t="s">
         <v>271</v>
       </c>
@@ -22557,7 +22547,7 @@
         <v>51V</v>
       </c>
     </row>
-    <row r="181" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" hidden="1">
       <c r="A181" s="3" t="s">
         <v>259</v>
       </c>
@@ -22636,7 +22626,7 @@
         <v>51V</v>
       </c>
     </row>
-    <row r="182" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" hidden="1">
       <c r="A182" s="3" t="s">
         <v>259</v>
       </c>
@@ -22715,7 +22705,7 @@
         <v>51V</v>
       </c>
     </row>
-    <row r="183" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" hidden="1">
       <c r="A183" s="3" t="s">
         <v>259</v>
       </c>
@@ -22794,7 +22784,7 @@
         <v>56V</v>
       </c>
     </row>
-    <row r="184" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" hidden="1">
       <c r="A184" s="3" t="s">
         <v>259</v>
       </c>
@@ -22873,7 +22863,7 @@
         <v>56V</v>
       </c>
     </row>
-    <row r="185" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" hidden="1">
       <c r="A185" s="3" t="s">
         <v>259</v>
       </c>
@@ -22952,7 +22942,7 @@
         <v>6.2V</v>
       </c>
     </row>
-    <row r="186" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" hidden="1">
       <c r="A186" s="3" t="s">
         <v>271</v>
       </c>
@@ -23031,7 +23021,7 @@
         <v>6.2V</v>
       </c>
     </row>
-    <row r="187" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" hidden="1">
       <c r="A187" s="3" t="s">
         <v>259</v>
       </c>
@@ -23110,7 +23100,7 @@
         <v>6.2V</v>
       </c>
     </row>
-    <row r="188" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" hidden="1">
       <c r="A188" s="3" t="s">
         <v>271</v>
       </c>
@@ -23189,7 +23179,7 @@
         <v>6.2V</v>
       </c>
     </row>
-    <row r="189" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" hidden="1">
       <c r="A189" s="3" t="s">
         <v>716</v>
       </c>
@@ -23268,7 +23258,7 @@
         <v>6.2V</v>
       </c>
     </row>
-    <row r="190" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" hidden="1">
       <c r="A190" s="3" t="s">
         <v>271</v>
       </c>
@@ -23347,7 +23337,7 @@
         <v>6.2V</v>
       </c>
     </row>
-    <row r="191" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" hidden="1">
       <c r="A191" s="3" t="s">
         <v>259</v>
       </c>
@@ -23426,7 +23416,7 @@
         <v>6.2V</v>
       </c>
     </row>
-    <row r="192" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" hidden="1">
       <c r="A192" s="3" t="s">
         <v>954</v>
       </c>
@@ -23505,7 +23495,7 @@
         <v>6.2V</v>
       </c>
     </row>
-    <row r="193" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" hidden="1">
       <c r="A193" s="3" t="s">
         <v>271</v>
       </c>
@@ -23584,7 +23574,7 @@
         <v>6.8V</v>
       </c>
     </row>
-    <row r="194" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" hidden="1">
       <c r="A194" s="3" t="s">
         <v>271</v>
       </c>
@@ -23663,7 +23653,7 @@
         <v>6.8V</v>
       </c>
     </row>
-    <row r="195" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" hidden="1">
       <c r="A195" s="3" t="s">
         <v>259</v>
       </c>
@@ -23742,7 +23732,7 @@
         <v>6.8V</v>
       </c>
     </row>
-    <row r="196" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" hidden="1">
       <c r="A196" s="3" t="s">
         <v>259</v>
       </c>
@@ -23821,7 +23811,7 @@
         <v>6.8V</v>
       </c>
     </row>
-    <row r="197" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" hidden="1">
       <c r="A197" s="3" t="s">
         <v>259</v>
       </c>
@@ -23900,7 +23890,7 @@
         <v>6.8V</v>
       </c>
     </row>
-    <row r="198" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" hidden="1">
       <c r="A198" s="3" t="s">
         <v>271</v>
       </c>
@@ -23979,7 +23969,7 @@
         <v>6.8V</v>
       </c>
     </row>
-    <row r="199" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" hidden="1">
       <c r="A199" s="3" t="s">
         <v>259</v>
       </c>
@@ -24058,7 +24048,7 @@
         <v>6.8V</v>
       </c>
     </row>
-    <row r="200" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" hidden="1">
       <c r="A200" s="3" t="s">
         <v>259</v>
       </c>
@@ -24137,7 +24127,7 @@
         <v>60V</v>
       </c>
     </row>
-    <row r="201" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" hidden="1">
       <c r="A201" s="3" t="s">
         <v>259</v>
       </c>
@@ -24216,7 +24206,7 @@
         <v>60V</v>
       </c>
     </row>
-    <row r="202" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" hidden="1">
       <c r="A202" s="3" t="s">
         <v>259</v>
       </c>
@@ -24295,7 +24285,7 @@
         <v>60V</v>
       </c>
     </row>
-    <row r="203" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" hidden="1">
       <c r="A203" s="3" t="s">
         <v>259</v>
       </c>
@@ -24374,7 +24364,7 @@
         <v>62V</v>
       </c>
     </row>
-    <row r="204" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" hidden="1">
       <c r="A204" s="3" t="s">
         <v>259</v>
       </c>
@@ -24453,7 +24443,7 @@
         <v>62V</v>
       </c>
     </row>
-    <row r="205" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" hidden="1">
       <c r="A205" s="3" t="s">
         <v>259</v>
       </c>
@@ -24532,7 +24522,7 @@
         <v>68V</v>
       </c>
     </row>
-    <row r="206" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" hidden="1">
       <c r="A206" s="3" t="s">
         <v>259</v>
       </c>
@@ -24611,7 +24601,7 @@
         <v>68V</v>
       </c>
     </row>
-    <row r="207" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" hidden="1">
       <c r="A207" s="3" t="s">
         <v>259</v>
       </c>
@@ -24690,7 +24680,7 @@
         <v>68V</v>
       </c>
     </row>
-    <row r="208" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" hidden="1">
       <c r="A208" s="3" t="s">
         <v>259</v>
       </c>
@@ -24769,7 +24759,7 @@
         <v>6V</v>
       </c>
     </row>
-    <row r="209" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" hidden="1">
       <c r="A209" s="3" t="s">
         <v>259</v>
       </c>
@@ -24848,7 +24838,7 @@
         <v>6V</v>
       </c>
     </row>
-    <row r="210" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" hidden="1">
       <c r="A210" s="3" t="s">
         <v>259</v>
       </c>
@@ -24927,7 +24917,7 @@
         <v>6V</v>
       </c>
     </row>
-    <row r="211" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" hidden="1">
       <c r="A211" s="3" t="s">
         <v>259</v>
       </c>
@@ -25006,7 +24996,7 @@
         <v>7.5V</v>
       </c>
     </row>
-    <row r="212" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" hidden="1">
       <c r="A212" s="3" t="s">
         <v>259</v>
       </c>
@@ -25085,7 +25075,7 @@
         <v>7.5V</v>
       </c>
     </row>
-    <row r="213" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" hidden="1">
       <c r="A213" s="3" t="s">
         <v>259</v>
       </c>
@@ -25164,7 +25154,7 @@
         <v>7.5V</v>
       </c>
     </row>
-    <row r="214" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" hidden="1">
       <c r="A214" s="3" t="s">
         <v>259</v>
       </c>
@@ -25243,7 +25233,7 @@
         <v>75V</v>
       </c>
     </row>
-    <row r="215" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" hidden="1">
       <c r="A215" s="3" t="s">
         <v>259</v>
       </c>
@@ -25322,7 +25312,7 @@
         <v>75V</v>
       </c>
     </row>
-    <row r="216" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" hidden="1">
       <c r="A216" s="3" t="s">
         <v>271</v>
       </c>
@@ -25401,7 +25391,7 @@
         <v>75V</v>
       </c>
     </row>
-    <row r="217" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" hidden="1">
       <c r="A217" s="3" t="s">
         <v>271</v>
       </c>
@@ -25480,7 +25470,7 @@
         <v>75V</v>
       </c>
     </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28">
       <c r="A218" s="3" t="s">
         <v>259</v>
       </c>
@@ -25564,11 +25554,11 @@
       <c r="AA218" t="s">
         <v>976</v>
       </c>
-      <c r="AB218" s="5" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="219" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB218" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="219" spans="1:28" hidden="1">
       <c r="A219" s="3" t="s">
         <v>271</v>
       </c>
@@ -25647,7 +25637,7 @@
         <v>8.2V</v>
       </c>
     </row>
-    <row r="220" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" hidden="1">
       <c r="A220" s="3" t="s">
         <v>259</v>
       </c>
@@ -25726,7 +25716,7 @@
         <v>8.2V</v>
       </c>
     </row>
-    <row r="221" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" hidden="1">
       <c r="A221" s="3" t="s">
         <v>259</v>
       </c>
@@ -25805,7 +25795,7 @@
         <v>8.2V</v>
       </c>
     </row>
-    <row r="222" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" hidden="1">
       <c r="A222" s="3" t="s">
         <v>259</v>
       </c>
@@ -25884,7 +25874,7 @@
         <v>8.2V</v>
       </c>
     </row>
-    <row r="223" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" hidden="1">
       <c r="A223" s="3" t="s">
         <v>259</v>
       </c>
@@ -25963,7 +25953,7 @@
         <v>8.7V</v>
       </c>
     </row>
-    <row r="224" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" hidden="1">
       <c r="A224" s="3" t="s">
         <v>259</v>
       </c>
@@ -26042,7 +26032,7 @@
         <v>8.7V</v>
       </c>
     </row>
-    <row r="225" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" hidden="1">
       <c r="A225" s="3" t="s">
         <v>259</v>
       </c>
@@ -26121,7 +26111,7 @@
         <v>82V</v>
       </c>
     </row>
-    <row r="226" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" hidden="1">
       <c r="A226" s="3" t="s">
         <v>271</v>
       </c>
@@ -26200,7 +26190,7 @@
         <v>9.1V</v>
       </c>
     </row>
-    <row r="227" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" hidden="1">
       <c r="A227" s="3" t="s">
         <v>259</v>
       </c>
@@ -26279,7 +26269,7 @@
         <v>9.1V</v>
       </c>
     </row>
-    <row r="228" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" hidden="1">
       <c r="A228" s="3" t="s">
         <v>259</v>
       </c>
@@ -26358,7 +26348,7 @@
         <v>9.1V</v>
       </c>
     </row>
-    <row r="229" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" hidden="1">
       <c r="A229" s="3" t="s">
         <v>271</v>
       </c>
@@ -26437,7 +26427,7 @@
         <v>9.1V</v>
       </c>
     </row>
-    <row r="230" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" hidden="1">
       <c r="A230" s="3" t="s">
         <v>271</v>
       </c>
@@ -26516,7 +26506,7 @@
         <v>9.1V</v>
       </c>
     </row>
-    <row r="231" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" hidden="1">
       <c r="A231" s="3" t="s">
         <v>259</v>
       </c>
@@ -26595,7 +26585,7 @@
         <v>9.1V</v>
       </c>
     </row>
-    <row r="232" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" hidden="1">
       <c r="A232" s="3" t="s">
         <v>259</v>
       </c>
@@ -26674,7 +26664,7 @@
         <v>91V</v>
       </c>
     </row>
-    <row r="233" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" hidden="1">
       <c r="A233" s="3" t="s">
         <v>271</v>
       </c>
@@ -26755,9 +26745,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
